--- a/lab5/Lab 5 - Active Filter.xlsx
+++ b/lab5/Lab 5 - Active Filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\3ej4\lab5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardqiu/Desktop/2022Fall/3EJ4/3EJ4-Electronics-Circuit-Lab/lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66422F55-58DD-4EE2-BDFA-5C72535C44D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A911C1-4F69-EB4A-985B-B68FF53D814D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19470" yWindow="525" windowWidth="17865" windowHeight="13950" activeTab="3" xr2:uid="{3E544451-E9BF-4D25-B121-7D991134C304}"/>
+    <workbookView xWindow="58160" yWindow="500" windowWidth="24460" windowHeight="21100" activeTab="2" xr2:uid="{3E544451-E9BF-4D25-B121-7D991134C304}"/>
   </bookViews>
   <sheets>
     <sheet name="Step 1.3" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -641,14 +640,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -665,14 +664,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -680,7 +679,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -688,7 +687,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -696,35 +695,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -732,7 +731,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -740,14 +739,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -755,7 +754,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -763,7 +762,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -771,27 +770,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -799,7 +798,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -807,7 +806,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1161,7 +1160,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1207,6 +1206,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="33" borderId="0" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1342,7 +1343,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7451,7 +7452,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7535,7 +7535,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7573,7 +7573,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="927934480"/>
@@ -7653,7 +7653,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7691,7 +7691,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="777967472"/>
@@ -7733,7 +7733,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7763,7 +7763,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7844,7 +7844,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7879,6 +7879,77 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="302"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-502B-FB49-A9E1-88A9F4C658D2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Step 2.2'!$A$3:$A$508</c:f>
@@ -11024,7 +11095,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11062,7 +11133,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="927934480"/>
@@ -11142,7 +11213,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11180,7 +11251,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="777967472"/>
@@ -11221,7 +11292,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11272,7 +11343,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14395,7 +14466,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2031651584"/>
@@ -14457,7 +14528,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="221563712"/>
@@ -14505,7 +14576,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14586,7 +14657,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -20808,7 +20879,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20846,7 +20917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="927934480"/>
@@ -20926,7 +20997,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20964,7 +21035,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="777967472"/>
@@ -21006,7 +21077,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -21036,7 +21107,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23291,7 +23362,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2941205-6A28-402D-84AC-F3013D3D6FBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23485,15 +23556,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>885825</xdr:colOff>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -23669,11 +23740,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>584200</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -23780,8058 +23851,12 @@
           <cell r="A3">
             <v>1</v>
           </cell>
-          <cell r="D3">
-            <v>3.5218261766327168</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1.0230597298425086</v>
-          </cell>
-          <cell r="D4">
-            <v>3.5218260960082053</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1.0466512108254267</v>
-          </cell>
-          <cell r="D5">
-            <v>3.5218260116224398</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1.0707867049863955</v>
-          </cell>
-          <cell r="D6">
-            <v>3.5218259232999927</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1.0954787571223317</v>
-          </cell>
-          <cell r="D7">
-            <v>3.5218258308571917</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1.1207402013097798</v>
-          </cell>
-          <cell r="D8">
-            <v>3.5218257341018386</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1.1465841675756221</v>
-          </cell>
-          <cell r="D9">
-            <v>3.5218256328327078</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1.1730240887216135</v>
-          </cell>
-          <cell r="D10">
-            <v>3.5218255268392729</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1.2000737073062886</v>
-          </cell>
-          <cell r="D11">
-            <v>3.5218254159011058</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1.2277470827878694</v>
-          </cell>
-          <cell r="D12">
-            <v>3.5218252997875537</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1.2560585988318858</v>
-          </cell>
-          <cell r="D13">
-            <v>3.5218251782571839</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1.2850229707873089</v>
-          </cell>
-          <cell r="D14">
-            <v>3.5218250510572586</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>1.3146552533350819</v>
-          </cell>
-          <cell r="D15">
-            <v>3.5218249179233077</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>1.3449708483130236</v>
-          </cell>
-          <cell r="D16">
-            <v>3.521824778578504</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>1.3759855127211715</v>
-          </cell>
-          <cell r="D17">
-            <v>3.5218246327330776</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>1.4077153669117275</v>
-          </cell>
-          <cell r="D18">
-            <v>3.5218244800838292</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>1.4401769029678597</v>
-          </cell>
-          <cell r="D19">
-            <v>3.521824320313292</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>1.4733869932757193</v>
-          </cell>
-          <cell r="D20">
-            <v>3.5218241530892636</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>1.5073628992941235</v>
-          </cell>
-          <cell r="D21">
-            <v>3.5218239780640386</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>1.5421222805264665</v>
-          </cell>
-          <cell r="D22">
-            <v>3.521823794873709</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>1.5776832036995201</v>
-          </cell>
-          <cell r="D23">
-            <v>3.5218236031373333</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>1.6140641521538945</v>
-          </cell>
-          <cell r="D24">
-            <v>3.5218234024562021</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>1.651284035451041</v>
-          </cell>
-          <cell r="D25">
-            <v>3.5218231924131205</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>1.6893621992017893</v>
-          </cell>
-          <cell r="D26">
-            <v>3.5218229725712291</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>1.7283184351215288</v>
-          </cell>
-          <cell r="D27">
-            <v>3.5218227424734727</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>1.7681729913172586</v>
-          </cell>
-          <cell r="D28">
-            <v>3.5218225016414042</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>1.8089465828118549</v>
-          </cell>
-          <cell r="D29">
-            <v>3.5218222495742117</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>1.8506604023110254</v>
-          </cell>
-          <cell r="D30">
-            <v>3.5218219857478408</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>1.8933361312185459</v>
-          </cell>
-          <cell r="D31">
-            <v>3.521821709613616</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>1.9369959509055059</v>
-          </cell>
-          <cell r="D32">
-            <v>3.5218214205974667</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>1.9816625542394199</v>
-          </cell>
-          <cell r="D33">
-            <v>3.5218211180983543</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>2.0273591573791965</v>
-          </cell>
-          <cell r="D34">
-            <v>3.5218208014873147</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>2.0741095118420967</v>
-          </cell>
-          <cell r="D35">
-            <v>3.5218204701060203</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>2.1219379168489527</v>
-          </cell>
-          <cell r="D36">
-            <v>3.5218201232654076</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>2.170869231954065</v>
-          </cell>
-          <cell r="D37">
-            <v>3.5218197602443002</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>2.22092888996634</v>
-          </cell>
-          <cell r="D38">
-            <v>3.5218193802878379</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>2.2721429101683861</v>
-          </cell>
-          <cell r="D39">
-            <v>3.5218189826059874</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>2.3245379118404403</v>
-          </cell>
-          <cell r="D40">
-            <v>3.5218185663718331</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>2.37814112809615</v>
-          </cell>
-          <cell r="D41">
-            <v>3.5218181307199043</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>2.4329804200374059</v>
-          </cell>
-          <cell r="D42">
-            <v>3.5218176747443386</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>2.4890842912355815</v>
-          </cell>
-          <cell r="D43">
-            <v>3.5218171974969987</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>2.5464819025467058</v>
-          </cell>
-          <cell r="D44">
-            <v>3.5218166979855492</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>2.6052030872682703</v>
-          </cell>
-          <cell r="D45">
-            <v>3.5218161751713546</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>2.6652783666455462</v>
-          </cell>
-          <cell r="D46">
-            <v>3.5218156279673152</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>2.7267389657354753</v>
-          </cell>
-          <cell r="D47">
-            <v>3.5218150552355967</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>2.7896168296363766</v>
-          </cell>
-          <cell r="D48">
-            <v>3.5218144557853241</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>2.8539446400919068</v>
-          </cell>
-          <cell r="D49">
-            <v>3.5218138283701035</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>2.9197558324779016</v>
-          </cell>
-          <cell r="D50">
-            <v>3.5218131716852552</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>2.9870846131809308</v>
-          </cell>
-          <cell r="D51">
-            <v>3.5218124843653866</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>3.0559659773775971</v>
-          </cell>
-          <cell r="D52">
-            <v>3.5218117649813445</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>3.1264357272238223</v>
-          </cell>
-          <cell r="D53">
-            <v>3.5218110120373005</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>3.1985304904635705</v>
-          </cell>
-          <cell r="D54">
-            <v>3.5218102239676128</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>3.2722877394666869</v>
-          </cell>
-          <cell r="D55">
-            <v>3.5218093991336823</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>3.3477458107057418</v>
-          </cell>
-          <cell r="D56">
-            <v>3.5218085358204361</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>3.4249439246820064</v>
-          </cell>
-          <cell r="D57">
-            <v>3.5218076322327372</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>3.5039222063109143</v>
-          </cell>
-          <cell r="D58">
-            <v>3.5218066864918134</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>3.5847217057776106</v>
-          </cell>
-          <cell r="D59">
-            <v>3.521805696631108</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>3.6673844198734189</v>
-          </cell>
-          <cell r="D60">
-            <v>3.5218046605924753</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>3.7519533138243251</v>
-          </cell>
-          <cell r="D61">
-            <v>3.5218035762216542</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>3.838472343622819</v>
-          </cell>
-          <cell r="D62">
-            <v>3.5218024412639073</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>3.926986478874702</v>
-          </cell>
-          <cell r="D63">
-            <v>3.5218012533593086</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>4.0175417261727366</v>
-          </cell>
-          <cell r="D64">
-            <v>3.5218000100378628</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>4.1101851530092857</v>
-          </cell>
-          <cell r="D65">
-            <v>3.5217987087143432</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>4.2049649122403698</v>
-          </cell>
-          <cell r="D66">
-            <v>3.5217973466829715</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>4.3019302671138604</v>
-          </cell>
-          <cell r="D67">
-            <v>3.5217959211115915</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>4.4011316168748165</v>
-          </cell>
-          <cell r="D68">
-            <v>3.5217944290361398</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>4.5026205229612728</v>
-          </cell>
-          <cell r="D69">
-            <v>3.5217928673540793</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>4.6064497358040946</v>
-          </cell>
-          <cell r="D70">
-            <v>3.5217912328182601</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>4.712673222244832</v>
-          </cell>
-          <cell r="D71">
-            <v>3.5217895220300171</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>4.8213461935858222</v>
-          </cell>
-          <cell r="D72">
-            <v>3.5217877314321466</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>4.9325251342871184</v>
-          </cell>
-          <cell r="D73">
-            <v>3.5217858573015448</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>5.0462678313251628</v>
-          </cell>
-          <cell r="D74">
-            <v>3.5217838957413079</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>5.1626334042284627</v>
-          </cell>
-          <cell r="D75">
-            <v>3.5217818426729015</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>5.2816823358058818</v>
-          </cell>
-          <cell r="D76">
-            <v>3.5217796938273631</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>5.4034765035835148</v>
-          </cell>
-          <cell r="D77">
-            <v>3.5217774447367454</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>5.5280792119664932</v>
-          </cell>
-          <cell r="D78">
-            <v>3.521775090724562</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>5.6555552251424279</v>
-          </cell>
-          <cell r="D79">
-            <v>3.5217726268962397</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>5.7859708007436002</v>
-          </cell>
-          <cell r="D80">
-            <v>3.5217700481288245</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>5.9193937242853911</v>
-          </cell>
-          <cell r="D81">
-            <v>3.5217673490604229</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>6.0558933443988527</v>
-          </cell>
-          <cell r="D82">
-            <v>3.5217645240790323</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>6.1955406088757359</v>
-          </cell>
-          <cell r="D83">
-            <v>3.5217615673108051</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>6.3384081015447018</v>
-          </cell>
-          <cell r="D84">
-            <v>3.5217584726079014</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>6.4845700799978907</v>
-          </cell>
-          <cell r="D85">
-            <v>3.5217552335357212</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>6.6341025141874566</v>
-          </cell>
-          <cell r="D86">
-            <v>3.5217518433595045</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>6.787083125912126</v>
-          </cell>
-          <cell r="D87">
-            <v>3.5217482950302808</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>6.9435914292143082</v>
-          </cell>
-          <cell r="D88">
-            <v>3.5217445811703145</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>7.1037087717087486</v>
-          </cell>
-          <cell r="D89">
-            <v>3.5217406940576756</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>7.2675183768642109</v>
-          </cell>
-          <cell r="D90">
-            <v>3.5217366256102882</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>7.4351053872601662</v>
-          </cell>
-          <cell r="D91">
-            <v>3.5217323673699581</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>7.6065569088409655</v>
-          </cell>
-          <cell r="D92">
-            <v>3.5217279104809847</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>7.7819620561905056</v>
-          </cell>
-          <cell r="D93">
-            <v>3.5217232456776304</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>7.9614119988509113</v>
-          </cell>
-          <cell r="D94">
-            <v>3.5217183632609479</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>8.1450000087093191</v>
-          </cell>
-          <cell r="D95">
-            <v>3.5217132530794952</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>8.3328215084773856</v>
-          </cell>
-          <cell r="D96">
-            <v>3.5217079045083044</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>8.5249741212887198</v>
-          </cell>
-          <cell r="D97">
-            <v>3.5217023064268353</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>8.7215577214400142</v>
-          </cell>
-          <cell r="D98">
-            <v>3.5216964471958483</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>8.9226744863022649</v>
-          </cell>
-          <cell r="D99">
-            <v>3.5216903146331098</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>9.1284289494290398</v>
-          </cell>
-          <cell r="D100">
-            <v>3.5216838959881702</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>9.3389280548894078</v>
-          </cell>
-          <cell r="D101">
-            <v>3.5216771779157821</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>9.5542812128537822</v>
-          </cell>
-          <cell r="D102">
-            <v>3.5216701464483782</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>9.774600356461546</v>
-          </cell>
-          <cell r="D103">
-            <v>3.5216627869666621</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>10.000000000000037</v>
-          </cell>
-          <cell r="D104">
-            <v>3.5216550841695944</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>10.230597298425124</v>
-          </cell>
-          <cell r="D105">
-            <v>3.5216470220423357</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>10.466512108254305</v>
-          </cell>
-          <cell r="D106">
-            <v>3.5216385838231075</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>10.707867049863994</v>
-          </cell>
-          <cell r="D107">
-            <v>3.5216297519683026</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>10.954787571223358</v>
-          </cell>
-          <cell r="D108">
-            <v>3.5216205081160075</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>11.207402013097839</v>
-          </cell>
-          <cell r="D109">
-            <v>3.5216108330478839</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>11.465841675756263</v>
-          </cell>
-          <cell r="D110">
-            <v>3.5216007066492221</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>11.730240887216178</v>
-          </cell>
-          <cell r="D111">
-            <v>3.5215901078670511</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>12.000737073062931</v>
-          </cell>
-          <cell r="D112">
-            <v>3.5215790146666075</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>12.277470827878739</v>
-          </cell>
-          <cell r="D113">
-            <v>3.5215674039852645</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>12.560585988318904</v>
-          </cell>
-          <cell r="D114">
-            <v>3.5215552516847999</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>12.850229707873137</v>
-          </cell>
-          <cell r="D115">
-            <v>3.5215425325022878</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>13.146552533350869</v>
-          </cell>
-          <cell r="D116">
-            <v>3.5215292199933117</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>13.449708483130287</v>
-          </cell>
-          <cell r="D117">
-            <v>3.5215152864833916</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>13.759855127211768</v>
-          </cell>
-          <cell r="D118">
-            <v>3.5215007030062346</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>14.077153669117328</v>
-          </cell>
-          <cell r="D119">
-            <v>3.5214854392446786</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>14.401769029678652</v>
-          </cell>
-          <cell r="D120">
-            <v>3.5214694634676262</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>14.73386993275725</v>
-          </cell>
-          <cell r="D121">
-            <v>3.5214527424641755</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>15.073628992941291</v>
-          </cell>
-          <cell r="D122">
-            <v>3.5214352414746002</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>15.421222805264723</v>
-          </cell>
-          <cell r="D123">
-            <v>3.5214169241182147</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>15.776832036995259</v>
-          </cell>
-          <cell r="D124">
-            <v>3.5213977523177387</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>16.140641521539003</v>
-          </cell>
-          <cell r="D125">
-            <v>3.5213776862201955</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>16.51284035451047</v>
-          </cell>
-          <cell r="D126">
-            <v>3.5213566841142181</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>16.893621992017955</v>
-          </cell>
-          <cell r="D127">
-            <v>3.5213347023453649</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>17.28318435121535</v>
-          </cell>
-          <cell r="D128">
-            <v>3.5213116952174239</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>17.681729913172649</v>
-          </cell>
-          <cell r="D129">
-            <v>3.5212876149096708</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>18.089465828118612</v>
-          </cell>
-          <cell r="D130">
-            <v>3.5212624113694129</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>18.50660402311032</v>
-          </cell>
-          <cell r="D131">
-            <v>3.5212360322101359</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>18.933361312185525</v>
-          </cell>
-          <cell r="D132">
-            <v>3.5212084226027729</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>19.369959509055128</v>
-          </cell>
-          <cell r="D133">
-            <v>3.5211795251617648</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>19.81662554239427</v>
-          </cell>
-          <cell r="D134">
-            <v>3.5211492798261075</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>20.273591573792036</v>
-          </cell>
-          <cell r="D135">
-            <v>3.5211176237345372</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>20.74109511842104</v>
-          </cell>
-          <cell r="D136">
-            <v>3.5210844910951149</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>21.219379168489603</v>
-          </cell>
-          <cell r="D137">
-            <v>3.5210498130486583</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>21.708692319540727</v>
-          </cell>
-          <cell r="D138">
-            <v>3.5210135175259536</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>22.209288899663477</v>
-          </cell>
-          <cell r="D139">
-            <v>3.5209755290980569</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>22.721429101683942</v>
-          </cell>
-          <cell r="D140">
-            <v>3.5209357688209035</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>23.245379118404486</v>
-          </cell>
-          <cell r="D141">
-            <v>3.5208941540675278</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>23.781411280961585</v>
-          </cell>
-          <cell r="D142">
-            <v>3.5208505983626184</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>24.329804200374145</v>
-          </cell>
-          <cell r="D143">
-            <v>3.5208050111991849</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>24.890842912355904</v>
-          </cell>
-          <cell r="D144">
-            <v>3.5207572978529527</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>25.46481902546715</v>
-          </cell>
-          <cell r="D145">
-            <v>3.5207073591817251</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>26.052030872682796</v>
-          </cell>
-          <cell r="D146">
-            <v>3.5206550914260704</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>26.652783666455555</v>
-          </cell>
-          <cell r="D147">
-            <v>3.5206003859900892</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>27.267389657354848</v>
-          </cell>
-          <cell r="D148">
-            <v>3.5205431292183835</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>27.896168296363864</v>
-          </cell>
-          <cell r="D149">
-            <v>3.5204832021563766</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>28.539446400919168</v>
-          </cell>
-          <cell r="D150">
-            <v>3.5204204803100714</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>29.197558324779116</v>
-          </cell>
-          <cell r="D151">
-            <v>3.5203548333849168</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>29.870846131809412</v>
-          </cell>
-          <cell r="D152">
-            <v>3.5202861250130049</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>30.55965977377608</v>
-          </cell>
-          <cell r="D153">
-            <v>3.5202142124776197</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>31.264357272238332</v>
-          </cell>
-          <cell r="D154">
-            <v>3.5201389464097268</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>31.985304904635818</v>
-          </cell>
-          <cell r="D155">
-            <v>3.5200601704857255</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>32.722877394666988</v>
-          </cell>
-          <cell r="D156">
-            <v>3.5199777211009629</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>33.477458107057537</v>
-          </cell>
-          <cell r="D157">
-            <v>3.5198914270280257</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>34.249439246820181</v>
-          </cell>
-          <cell r="D158">
-            <v>3.5198011090696282</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>35.039222063109264</v>
-          </cell>
-          <cell r="D159">
-            <v>3.5197065796798221</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>35.847217057776227</v>
-          </cell>
-          <cell r="D160">
-            <v>3.5196076425853628</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>36.673844198734315</v>
-          </cell>
-          <cell r="D161">
-            <v>3.5195040923675251</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>37.519533138243382</v>
-          </cell>
-          <cell r="D162">
-            <v>3.5193957140511403</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>38.38472343622832</v>
-          </cell>
-          <cell r="D163">
-            <v>3.5192822826518277</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>39.269864788747157</v>
-          </cell>
-          <cell r="D164">
-            <v>3.5191635627145867</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>40.17541726172751</v>
-          </cell>
-          <cell r="D165">
-            <v>3.5190393078244426</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>41.101851530093001</v>
-          </cell>
-          <cell r="D166">
-            <v>3.5189092600998215</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167">
-            <v>42.049649122403842</v>
-          </cell>
-          <cell r="D167">
-            <v>3.5187731496633528</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>43.019302671138753</v>
-          </cell>
-          <cell r="D168">
-            <v>3.5186306940789898</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>44.011316168748323</v>
-          </cell>
-          <cell r="D169">
-            <v>3.5184815977739126</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>45.026205229612891</v>
-          </cell>
-          <cell r="D170">
-            <v>3.5183255514268947</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>46.064497358041109</v>
-          </cell>
-          <cell r="D171">
-            <v>3.5181622313350958</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>47.126732222448489</v>
-          </cell>
-          <cell r="D172">
-            <v>3.5179912987413675</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173">
-            <v>48.213461935858398</v>
-          </cell>
-          <cell r="D173">
-            <v>3.5178123991417798</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174">
-            <v>49.325251342871361</v>
-          </cell>
-          <cell r="D174">
-            <v>3.5176251615501792</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175">
-            <v>50.462678313251807</v>
-          </cell>
-          <cell r="D175">
-            <v>3.5174291977450838</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176">
-            <v>51.62633404228481</v>
-          </cell>
-          <cell r="D176">
-            <v>3.5172241014616197</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177">
-            <v>52.816823358059004</v>
-          </cell>
-          <cell r="D177">
-            <v>3.5170094475619647</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178">
-            <v>54.034765035835342</v>
-          </cell>
-          <cell r="D178">
-            <v>3.5167847911619994</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>55.280792119665136</v>
-          </cell>
-          <cell r="D179">
-            <v>3.516549666714615</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180">
-            <v>56.555552251424494</v>
-          </cell>
-          <cell r="D180">
-            <v>3.5163035870606856</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181">
-            <v>57.859708007436218</v>
-          </cell>
-          <cell r="D181">
-            <v>3.516046042427603</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182">
-            <v>59.193937242854126</v>
-          </cell>
-          <cell r="D182">
-            <v>3.5157764993820777</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183">
-            <v>60.558933443988749</v>
-          </cell>
-          <cell r="D183">
-            <v>3.5154943997442532</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>61.955406088757591</v>
-          </cell>
-          <cell r="D184">
-            <v>3.5151991594430281</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>63.384081015447251</v>
-          </cell>
-          <cell r="D185">
-            <v>3.5148901673204596</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>64.845700799979141</v>
-          </cell>
-          <cell r="D186">
-            <v>3.514566783885416</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>66.341025141874809</v>
-          </cell>
-          <cell r="D187">
-            <v>3.5142283400121102</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>67.870831259121516</v>
-          </cell>
-          <cell r="D188">
-            <v>3.5138741355696967</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>69.435914292143352</v>
-          </cell>
-          <cell r="D189">
-            <v>3.5135034380015573</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>71.037087717087758</v>
-          </cell>
-          <cell r="D190">
-            <v>3.5131154808286302</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>72.675183768642384</v>
-          </cell>
-          <cell r="D191">
-            <v>3.5127094621014416</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>74.351053872601938</v>
-          </cell>
-          <cell r="D192">
-            <v>3.5122845427618801</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>76.065569088409944</v>
-          </cell>
-          <cell r="D193">
-            <v>3.5118398449482058</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>77.819620561905353</v>
-          </cell>
-          <cell r="D194">
-            <v>3.5113744502068678</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>79.614119988509415</v>
-          </cell>
-          <cell r="D195">
-            <v>3.5108873976509791</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>81.4500000870935</v>
-          </cell>
-          <cell r="D196">
-            <v>3.5103776820007497</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197">
-            <v>83.328215084774172</v>
-          </cell>
-          <cell r="D197">
-            <v>3.5098442515677135</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198">
-            <v>85.249741212887514</v>
-          </cell>
-          <cell r="D198">
-            <v>3.5092860061274411</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199">
-            <v>87.215577214400469</v>
-          </cell>
-          <cell r="D199">
-            <v>3.5087017947096584</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200">
-            <v>89.226744863022986</v>
-          </cell>
-          <cell r="D200">
-            <v>3.5080904132846986</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201">
-            <v>91.284289494290732</v>
-          </cell>
-          <cell r="D201">
-            <v>3.507450602349715</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>93.389280548894419</v>
-          </cell>
-          <cell r="D202">
-            <v>3.5067810444023646</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>95.542812128538174</v>
-          </cell>
-          <cell r="D203">
-            <v>3.5060803613143818</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>97.746003564615819</v>
-          </cell>
-          <cell r="D204">
-            <v>3.5053471115750936</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>100.00000000000074</v>
-          </cell>
-          <cell r="D205">
-            <v>3.5045797874249214</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>102.30597298425161</v>
-          </cell>
-          <cell r="D206">
-            <v>3.5037768118583283</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>104.66512108254344</v>
-          </cell>
-          <cell r="D207">
-            <v>3.5029365354977826</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208">
-            <v>107.07867049864034</v>
-          </cell>
-          <cell r="D208">
-            <v>3.5020572333265405</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209">
-            <v>109.54787571223397</v>
-          </cell>
-          <cell r="D209">
-            <v>3.5011371012909032</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>112.07402013097879</v>
-          </cell>
-          <cell r="D210">
-            <v>3.5001742527413104</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211">
-            <v>114.65841675756303</v>
-          </cell>
-          <cell r="D211">
-            <v>3.4991667147313974</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212">
-            <v>117.30240887216219</v>
-          </cell>
-          <cell r="D212">
-            <v>3.4981124241539092</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213">
-            <v>120.00737073062973</v>
-          </cell>
-          <cell r="D213">
-            <v>3.497009223709151</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214">
-            <v>122.77470827878783</v>
-          </cell>
-          <cell r="D214">
-            <v>3.4958548577073447</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215">
-            <v>125.60585988318948</v>
-          </cell>
-          <cell r="D215">
-            <v>3.4946469676906879</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216">
-            <v>128.50229707873183</v>
-          </cell>
-          <cell r="D216">
-            <v>3.4933830878668735</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217">
-            <v>131.46552533350916</v>
-          </cell>
-          <cell r="D217">
-            <v>3.4920606403624377</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218">
-            <v>134.49708483130334</v>
-          </cell>
-          <cell r="D218">
-            <v>3.4906769302648275</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219">
-            <v>137.59855127211816</v>
-          </cell>
-          <cell r="D219">
-            <v>3.4892291404656319</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220">
-            <v>140.77153669117376</v>
-          </cell>
-          <cell r="D220">
-            <v>3.4877143262971422</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221">
-            <v>144.01769029678701</v>
-          </cell>
-          <cell r="D221">
-            <v>3.4861294099376066</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222">
-            <v>147.33869932757298</v>
-          </cell>
-          <cell r="D222">
-            <v>3.4844711745958867</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223">
-            <v>150.73628992941343</v>
-          </cell>
-          <cell r="D223">
-            <v>3.4827362584630972</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224">
-            <v>154.21222805264776</v>
-          </cell>
-          <cell r="D224">
-            <v>3.4809211484186569</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225">
-            <v>157.76832036995313</v>
-          </cell>
-          <cell r="D225">
-            <v>3.4790221734896551</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226">
-            <v>161.40641521539058</v>
-          </cell>
-          <cell r="D226">
-            <v>3.47703549804368</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227">
-            <v>165.12840354510524</v>
-          </cell>
-          <cell r="D227">
-            <v>3.4749571147335412</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228">
-            <v>168.93621992018012</v>
-          </cell>
-          <cell r="D228">
-            <v>3.4727828371519238</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229">
-            <v>172.83184351215408</v>
-          </cell>
-          <cell r="D229">
-            <v>3.470508292214054</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230">
-            <v>176.81729913172708</v>
-          </cell>
-          <cell r="D230">
-            <v>3.468128912253805</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231">
-            <v>180.89465828118674</v>
-          </cell>
-          <cell r="D231">
-            <v>3.4656399268179348</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232">
-            <v>185.06604023110381</v>
-          </cell>
-          <cell r="D232">
-            <v>3.4630363541656939</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="A233">
-            <v>189.3336131218559</v>
-          </cell>
-          <cell r="D233">
-            <v>3.4603129924507945</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="A234">
-            <v>193.69959509055195</v>
-          </cell>
-          <cell r="D234">
-            <v>3.4574644105964629</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="A235">
-            <v>198.1662554239434</v>
-          </cell>
-          <cell r="D235">
-            <v>3.4544849388357917</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="A236">
-            <v>202.73591573792109</v>
-          </cell>
-          <cell r="D236">
-            <v>3.4513686589368824</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="A237">
-            <v>207.41095118421114</v>
-          </cell>
-          <cell r="D237">
-            <v>3.4481093940871017</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="A238">
-            <v>212.19379168489678</v>
-          </cell>
-          <cell r="D238">
-            <v>3.4447006984378508</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="A239">
-            <v>217.08692319540805</v>
-          </cell>
-          <cell r="D239">
-            <v>3.4411358463102482</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="A240">
-            <v>222.09288899663557</v>
-          </cell>
-          <cell r="D240">
-            <v>3.4374078210491161</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="A241">
-            <v>227.21429101684024</v>
-          </cell>
-          <cell r="D241">
-            <v>3.4335093035378077</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="A242">
-            <v>232.45379118404568</v>
-          </cell>
-          <cell r="D242">
-            <v>3.4294326603520635</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="A243">
-            <v>237.81411280961669</v>
-          </cell>
-          <cell r="D243">
-            <v>3.4251699315751836</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="A244">
-            <v>243.29804200374232</v>
-          </cell>
-          <cell r="D244">
-            <v>3.4207128182410704</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="A245">
-            <v>248.90842912355993</v>
-          </cell>
-          <cell r="D245">
-            <v>3.4160526694653552</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="A246">
-            <v>254.64819025467241</v>
-          </cell>
-          <cell r="D246">
-            <v>3.4111804691968306</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247">
-            <v>260.52030872682889</v>
-          </cell>
-          <cell r="D247">
-            <v>3.4060868226533265</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="A248">
-            <v>266.5278366645565</v>
-          </cell>
-          <cell r="D248">
-            <v>3.4007619424151585</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249">
-            <v>272.67389657354943</v>
-          </cell>
-          <cell r="D249">
-            <v>3.3951956342043923</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250">
-            <v>278.96168296363959</v>
-          </cell>
-          <cell r="D250">
-            <v>3.3893772823505031</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251">
-            <v>285.39446400919263</v>
-          </cell>
-          <cell r="D251">
-            <v>3.3832958349626518</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252">
-            <v>291.97558324779214</v>
-          </cell>
-          <cell r="D252">
-            <v>3.3769397888207644</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253">
-            <v>298.70846131809509</v>
-          </cell>
-          <cell r="D253">
-            <v>3.3702971740104632</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254">
-            <v>305.59659773776178</v>
-          </cell>
-          <cell r="D254">
-            <v>3.3633555383261191</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="A255">
-            <v>312.64357272238436</v>
-          </cell>
-          <cell r="D255">
-            <v>3.3561019314596541</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="A256">
-            <v>319.85304904635922</v>
-          </cell>
-          <cell r="D256">
-            <v>3.3485228890151078</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="A257">
-            <v>327.22877394667091</v>
-          </cell>
-          <cell r="D257">
-            <v>3.3406044163841719</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="A258">
-            <v>334.77458107057646</v>
-          </cell>
-          <cell r="D258">
-            <v>3.3323319725068989</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="A259">
-            <v>342.49439246820293</v>
-          </cell>
-          <cell r="D259">
-            <v>3.3236904535882719</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="A260">
-            <v>350.39222063109378</v>
-          </cell>
-          <cell r="D260">
-            <v>3.3146641767832712</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="A261">
-            <v>358.47217057776345</v>
-          </cell>
-          <cell r="D261">
-            <v>3.3052368639443435</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="A262">
-            <v>366.73844198734434</v>
-          </cell>
-          <cell r="D262">
-            <v>3.2953916254608497</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="A263">
-            <v>375.19533138243503</v>
-          </cell>
-          <cell r="D263">
-            <v>3.2851109442628119</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="A264">
-            <v>383.84723436228444</v>
-          </cell>
-          <cell r="D264">
-            <v>3.2743766600698052</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="A265">
-            <v>392.69864788747282</v>
-          </cell>
-          <cell r="D265">
-            <v>3.263169953954939</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="A266">
-            <v>401.75417261727637</v>
-          </cell>
-          <cell r="D266">
-            <v>3.2514713333098308</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="A267">
-            <v>411.01851530093131</v>
-          </cell>
-          <cell r="D267">
-            <v>3.2392606173089549</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="A268">
-            <v>420.4964912240398</v>
-          </cell>
-          <cell r="D268">
-            <v>3.2265169229567925</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="A269">
-            <v>430.19302671138894</v>
-          </cell>
-          <cell r="D269">
-            <v>3.2132186518454313</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="A270">
-            <v>440.11316168748465</v>
-          </cell>
-          <cell r="D270">
-            <v>3.1993434777210048</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="A271">
-            <v>450.26205229613032</v>
-          </cell>
-          <cell r="D271">
-            <v>3.1848683349899662</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="A272">
-            <v>460.64497358041257</v>
-          </cell>
-          <cell r="D272">
-            <v>3.1697694082831775</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="A273">
-            <v>471.26732222448641</v>
-          </cell>
-          <cell r="D273">
-            <v>3.1540221232372496</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="A274">
-            <v>482.1346193585855</v>
-          </cell>
-          <cell r="D274">
-            <v>3.1376011386137828</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="A275">
-            <v>493.25251342871519</v>
-          </cell>
-          <cell r="D275">
-            <v>3.1204803399270098</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="A276">
-            <v>504.62678313251968</v>
-          </cell>
-          <cell r="D276">
-            <v>3.1026328347285865</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="A277">
-            <v>516.26334042284975</v>
-          </cell>
-          <cell r="D277">
-            <v>3.0840309497284588</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="A278">
-            <v>528.16823358059173</v>
-          </cell>
-          <cell r="D278">
-            <v>3.0646462299116219</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="A279">
-            <v>540.34765035835517</v>
-          </cell>
-          <cell r="D279">
-            <v>3.0444494398415296</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="A280">
-            <v>552.80792119665318</v>
-          </cell>
-          <cell r="D280">
-            <v>3.0234105673241989</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="A281">
-            <v>565.55552251424683</v>
-          </cell>
-          <cell r="D281">
-            <v>3.0014988296332645</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="A282">
-            <v>578.59708007436416</v>
-          </cell>
-          <cell r="D282">
-            <v>2.9786826824721189</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="A283">
-            <v>591.93937242854327</v>
-          </cell>
-          <cell r="D283">
-            <v>2.9549298318836033</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="A284">
-            <v>605.58933443988951</v>
-          </cell>
-          <cell r="D284">
-            <v>2.930207249274086</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="A285">
-            <v>619.55406088757798</v>
-          </cell>
-          <cell r="D285">
-            <v>2.9044811897817313</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="A286">
-            <v>633.84081015447464</v>
-          </cell>
-          <cell r="D286">
-            <v>2.8777172141328848</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="A287">
-            <v>648.45700799979363</v>
-          </cell>
-          <cell r="D287">
-            <v>2.8498802142072903</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="A288">
-            <v>663.41025141875025</v>
-          </cell>
-          <cell r="D288">
-            <v>2.8209344424618803</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="A289">
-            <v>678.70831259121735</v>
-          </cell>
-          <cell r="D289">
-            <v>2.7908435453961595</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="A290">
-            <v>694.3591429214357</v>
-          </cell>
-          <cell r="D290">
-            <v>2.7595706012011174</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="A291">
-            <v>710.37087717087979</v>
-          </cell>
-          <cell r="D291">
-            <v>2.7270781617183895</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="A292">
-            <v>726.75183768642614</v>
-          </cell>
-          <cell r="D292">
-            <v>2.6933282988760383</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="A293">
-            <v>743.51053872602176</v>
-          </cell>
-          <cell r="D293">
-            <v>2.6582826556309409</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="A294">
-            <v>760.65569088410189</v>
-          </cell>
-          <cell r="D294">
-            <v>2.621902501552392</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="A295">
-            <v>778.19620561905595</v>
-          </cell>
-          <cell r="D295">
-            <v>2.5841487930459861</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="A296">
-            <v>796.14119988509663</v>
-          </cell>
-          <cell r="D296">
-            <v>2.5449822382781373</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="A297">
-            <v>814.50000087093758</v>
-          </cell>
-          <cell r="D297">
-            <v>2.50436336675312</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="A298">
-            <v>833.28215084774445</v>
-          </cell>
-          <cell r="D298">
-            <v>2.462252603485803</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="A299">
-            <v>852.49741212887795</v>
-          </cell>
-          <cell r="D299">
-            <v>2.4186103477076069</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="A300">
-            <v>872.15577214400764</v>
-          </cell>
-          <cell r="D300">
-            <v>2.3733970559375992</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="A301">
-            <v>892.26744863023293</v>
-          </cell>
-          <cell r="D301">
-            <v>2.3265733292592587</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="A302">
-            <v>912.84289494291056</v>
-          </cell>
-          <cell r="D302">
-            <v>2.2781000045632398</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="A303">
-            <v>933.89280548894749</v>
-          </cell>
-          <cell r="D303">
-            <v>2.2279382494962614</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="A304">
-            <v>955.42812128538503</v>
-          </cell>
-          <cell r="D304">
-            <v>2.1760496607832227</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="A305">
-            <v>977.4600356461616</v>
-          </cell>
-          <cell r="D305">
-            <v>2.1223963655543212</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="A306">
-            <v>1000.0000000000109</v>
-          </cell>
-          <cell r="D306">
-            <v>2.0669411252661196</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="A307">
-            <v>1023.0597298425198</v>
-          </cell>
-          <cell r="D307">
-            <v>2.0096474417281556</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="A308">
-            <v>1046.6512108254381</v>
-          </cell>
-          <cell r="D308">
-            <v>1.9504796647440317</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="A309">
-            <v>1070.7867049864071</v>
-          </cell>
-          <cell r="D309">
-            <v>1.8894031007991554</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="A310">
-            <v>1095.4787571223437</v>
-          </cell>
-          <cell r="D310">
-            <v>1.8263841221933685</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="A311">
-            <v>1120.7402013097922</v>
-          </cell>
-          <cell r="D311">
-            <v>1.7613902759933275</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="A312">
-            <v>1146.5841675756346</v>
-          </cell>
-          <cell r="D312">
-            <v>1.694390392141075</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="A313">
-            <v>1173.0240887216264</v>
-          </cell>
-          <cell r="D313">
-            <v>1.6253546900150329</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="A314">
-            <v>1200.0737073063019</v>
-          </cell>
-          <cell r="D314">
-            <v>1.5542548827537774</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="A315">
-            <v>1227.7470827878831</v>
-          </cell>
-          <cell r="D315">
-            <v>1.481064278612727</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="A316">
-            <v>1256.0585988318996</v>
-          </cell>
-          <cell r="D316">
-            <v>1.4057578786270744</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="A317">
-            <v>1285.0229707873232</v>
-          </cell>
-          <cell r="D317">
-            <v>1.3283124698596644</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="A318">
-            <v>1314.6552533350966</v>
-          </cell>
-          <cell r="D318">
-            <v>1.2487067135492416</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="A319">
-            <v>1344.9708483130387</v>
-          </cell>
-          <cell r="D319">
-            <v>1.1669212274308867</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="A320">
-            <v>1375.985512721187</v>
-          </cell>
-          <cell r="D320">
-            <v>1.082938661620259</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="A321">
-            <v>1407.7153669117433</v>
-          </cell>
-          <cell r="D321">
-            <v>0.99674376741133974</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="A322">
-            <v>1440.176902967876</v>
-          </cell>
-          <cell r="D322">
-            <v>0.9083234584339599</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="A323">
-            <v>1473.3869932757359</v>
-          </cell>
-          <cell r="D323">
-            <v>0.81766686365305208</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="A324">
-            <v>1507.3628992941403</v>
-          </cell>
-          <cell r="D324">
-            <v>0.7247653717630036</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="A325">
-            <v>1542.1222805264838</v>
-          </cell>
-          <cell r="D325">
-            <v>0.62961266658756565</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="A326">
-            <v>1577.6832036995377</v>
-          </cell>
-          <cell r="D326">
-            <v>0.53220475318812754</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="A327">
-            <v>1614.0641521539126</v>
-          </cell>
-          <cell r="D327">
-            <v>0.43253997443631276</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="A328">
-            <v>1651.2840354510595</v>
-          </cell>
-          <cell r="D328">
-            <v>0.33061901792598414</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="A329">
-            <v>1689.3621992018084</v>
-          </cell>
-          <cell r="D329">
-            <v>0.22644491314416437</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="A330">
-            <v>1728.3184351215482</v>
-          </cell>
-          <cell r="D330">
-            <v>0.12002301894189284</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="A331">
-            <v>1768.1729913172783</v>
-          </cell>
-          <cell r="D331">
-            <v>1.1361001407295646E-2</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="A332">
-            <v>1808.946582811875</v>
-          </cell>
-          <cell r="D332">
-            <v>-9.9531197673111124E-2</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="A333">
-            <v>1850.660402311046</v>
-          </cell>
-          <cell r="D333">
-            <v>-0.21264140146790772</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="A334">
-            <v>1893.3361312185671</v>
-          </cell>
-          <cell r="D334">
-            <v>-0.32795524753959798</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="A335">
-            <v>1936.9959509055277</v>
-          </cell>
-          <cell r="D335">
-            <v>-0.4454562456305256</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="A336">
-            <v>1981.6625542394422</v>
-          </cell>
-          <cell r="D336">
-            <v>-0.56512584331881643</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="A337">
-            <v>2027.3591573792194</v>
-          </cell>
-          <cell r="D337">
-            <v>-0.68694349899300844</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="A338">
-            <v>2074.1095118421199</v>
-          </cell>
-          <cell r="D338">
-            <v>-0.8108867615362868</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="A339">
-            <v>2121.9379168489768</v>
-          </cell>
-          <cell r="D339">
-            <v>-0.93693135610801415</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="A340">
-            <v>2170.8692319540896</v>
-          </cell>
-          <cell r="D340">
-            <v>-1.0650512753166712</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="A341">
-            <v>2220.9288899663652</v>
-          </cell>
-          <cell r="D341">
-            <v>-1.1952188751070298</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="A342">
-            <v>2272.1429101684121</v>
-          </cell>
-          <cell r="D342">
-            <v>-1.3274049746418353</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="A343">
-            <v>2324.5379118404671</v>
-          </cell>
-          <cell r="D343">
-            <v>-1.4615789594406965</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="A344">
-            <v>2378.1411280961775</v>
-          </cell>
-          <cell r="D344">
-            <v>-1.5977088870762346</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="A345">
-            <v>2432.9804200374338</v>
-          </cell>
-          <cell r="D345">
-            <v>-1.7357615946961593</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="A346">
-            <v>2489.0842912356102</v>
-          </cell>
-          <cell r="D346">
-            <v>-1.8757028076757449</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="A347">
-            <v>2546.4819025467355</v>
-          </cell>
-          <cell r="D347">
-            <v>-2.0174972487298777</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="A348">
-            <v>2605.2030872683004</v>
-          </cell>
-          <cell r="D348">
-            <v>-2.1611087468326833</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="A349">
-            <v>2665.2783666455766</v>
-          </cell>
-          <cell r="D349">
-            <v>-2.3065003453365489</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="A350">
-            <v>2726.7389657355061</v>
-          </cell>
-          <cell r="D350">
-            <v>-2.4536344087081394</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="A351">
-            <v>2789.6168296364081</v>
-          </cell>
-          <cell r="D351">
-            <v>-2.6024727273620702</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="A352">
-            <v>2853.9446400919392</v>
-          </cell>
-          <cell r="D352">
-            <v>-2.7529766200819612</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="A353">
-            <v>2919.7558324779347</v>
-          </cell>
-          <cell r="D353">
-            <v>-2.9051070336289309</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="A354">
-            <v>2987.0846131809649</v>
-          </cell>
-          <cell r="D354">
-            <v>-3.0588246390936598</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="A355">
-            <v>3055.965977377632</v>
-          </cell>
-          <cell r="D355">
-            <v>-3.2140899246875323</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="A356">
-            <v>3126.4357272238581</v>
-          </cell>
-          <cell r="D356">
-            <v>-3.3708632846838689</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="A357">
-            <v>3198.5304904636073</v>
-          </cell>
-          <cell r="D357">
-            <v>-3.5291051042126846</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="A358">
-            <v>3272.2877394667244</v>
-          </cell>
-          <cell r="D358">
-            <v>-3.6887758397789341</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="A359">
-            <v>3347.7458107057801</v>
-          </cell>
-          <cell r="D359">
-            <v>-3.8498360952988557</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="A360">
-            <v>3424.9439246820452</v>
-          </cell>
-          <cell r="D360">
-            <v>-4.0122466935623349</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="A361">
-            <v>3503.9222063109542</v>
-          </cell>
-          <cell r="D361">
-            <v>-4.1759687430592631</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="A362">
-            <v>3584.7217057776516</v>
-          </cell>
-          <cell r="D362">
-            <v>-4.3409637001153243</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="A363">
-            <v>3667.384419873461</v>
-          </cell>
-          <cell r="D363">
-            <v>-4.5071934263656628</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="A364">
-            <v>3751.9533138243683</v>
-          </cell>
-          <cell r="D364">
-            <v>-4.6746202415775908</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="A365">
-            <v>3838.4723436228633</v>
-          </cell>
-          <cell r="D365">
-            <v>-4.8432069719031663</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="A366">
-            <v>3926.9864788747473</v>
-          </cell>
-          <cell r="D366">
-            <v>-5.0129169936300277</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="A367">
-            <v>4017.541726172783</v>
-          </cell>
-          <cell r="D367">
-            <v>-5.1837142725735594</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="A368">
-            <v>4110.1851530093327</v>
-          </cell>
-          <cell r="D368">
-            <v>-5.3555633991991876</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="A369">
-            <v>4204.964912240418</v>
-          </cell>
-          <cell r="D369">
-            <v>-5.5284296196489375</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="A370">
-            <v>4301.9302671139103</v>
-          </cell>
-          <cell r="D370">
-            <v>-5.7022788628443752</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="A371">
-            <v>4401.1316168748681</v>
-          </cell>
-          <cell r="D371">
-            <v>-5.877077763788253</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="A372">
-            <v>4502.6205229613252</v>
-          </cell>
-          <cell r="D372">
-            <v>-6.0527936832988329</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="A373">
-            <v>4606.4497358041481</v>
-          </cell>
-          <cell r="D373">
-            <v>-6.229394724334794</v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="A374">
-            <v>4712.6732222448873</v>
-          </cell>
-          <cell r="D374">
-            <v>-6.4068497450950748</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="A375">
-            <v>4821.3461935858786</v>
-          </cell>
-          <cell r="D375">
-            <v>-6.5851283691188129</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="A376">
-            <v>4932.5251342871761</v>
-          </cell>
-          <cell r="D376">
-            <v>-6.7642009925322206</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="A377">
-            <v>5046.2678313252218</v>
-          </cell>
-          <cell r="D377">
-            <v>-6.9440387886782018</v>
-          </cell>
-        </row>
-        <row r="378">
-          <cell r="A378">
-            <v>5162.6334042285234</v>
-          </cell>
-          <cell r="D378">
-            <v>-7.1246137102768028</v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="A379">
-            <v>5281.6823358059437</v>
-          </cell>
-          <cell r="D379">
-            <v>-7.3058984893464807</v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="A380">
-            <v>5403.4765035835781</v>
-          </cell>
-          <cell r="D380">
-            <v>-7.4878666350299063</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="A381">
-            <v>5528.0792119665584</v>
-          </cell>
-          <cell r="D381">
-            <v>-7.6704924295121959</v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="A382">
-            <v>5655.5552251424951</v>
-          </cell>
-          <cell r="D382">
-            <v>-7.8537509222160642</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="A383">
-            <v>5785.9708007436693</v>
-          </cell>
-          <cell r="D383">
-            <v>-8.037617922409602</v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="A384">
-            <v>5919.3937242854618</v>
-          </cell>
-          <cell r="D384">
-            <v>-8.2220699904034404</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="A385">
-            <v>6055.8933443989254</v>
-          </cell>
-          <cell r="D385">
-            <v>-8.4070844274796013</v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="A386">
-            <v>6195.54060887581</v>
-          </cell>
-          <cell r="D386">
-            <v>-8.5926392646875787</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="A387">
-            <v>6338.4081015447773</v>
-          </cell>
-          <cell r="D387">
-            <v>-8.7787132506465628</v>
-          </cell>
-        </row>
-        <row r="388">
-          <cell r="A388">
-            <v>6484.5700799979677</v>
-          </cell>
-          <cell r="D388">
-            <v>-8.9652858384787937</v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="A389">
-            <v>6634.1025141875352</v>
-          </cell>
-          <cell r="D389">
-            <v>-9.1523371719832642</v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="A390">
-            <v>6787.0831259122069</v>
-          </cell>
-          <cell r="D390">
-            <v>-9.3398480711753979</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="A391">
-            <v>6943.5914292143907</v>
-          </cell>
-          <cell r="D391">
-            <v>-9.5278000172716322</v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="A392">
-            <v>7103.7087717088325</v>
-          </cell>
-          <cell r="D392">
-            <v>-9.7161751372375651</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="A393">
-            <v>7267.5183768642964</v>
-          </cell>
-          <cell r="D393">
-            <v>-9.9049561879720436</v>
-          </cell>
-        </row>
-        <row r="394">
-          <cell r="A394">
-            <v>7435.1053872602533</v>
-          </cell>
-          <cell r="D394">
-            <v>-10.094126540209894</v>
-          </cell>
-        </row>
-        <row r="395">
-          <cell r="A395">
-            <v>7606.5569088410548</v>
-          </cell>
-          <cell r="D395">
-            <v>-10.283670162223068</v>
-          </cell>
-        </row>
-        <row r="396">
-          <cell r="A396">
-            <v>7781.9620561905967</v>
-          </cell>
-          <cell r="D396">
-            <v>-10.473571603379913</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="A397">
-            <v>7961.4119988510047</v>
-          </cell>
-          <cell r="D397">
-            <v>-10.663815977629834</v>
-          </cell>
-        </row>
-        <row r="398">
-          <cell r="A398">
-            <v>8145.0000087094149</v>
-          </cell>
-          <cell r="D398">
-            <v>-10.854388946971625</v>
-          </cell>
-        </row>
-        <row r="399">
-          <cell r="A399">
-            <v>8332.8215084774838</v>
-          </cell>
-          <cell r="D399">
-            <v>-11.045276704937079</v>
-          </cell>
-        </row>
-        <row r="400">
-          <cell r="A400">
-            <v>8524.9741212888202</v>
-          </cell>
-          <cell r="D400">
-            <v>-11.236465960172776</v>
-          </cell>
-        </row>
-        <row r="401">
-          <cell r="A401">
-            <v>8721.5577214401183</v>
-          </cell>
-          <cell r="D401">
-            <v>-11.427943920115091</v>
-          </cell>
-        </row>
-        <row r="402">
-          <cell r="A402">
-            <v>8922.6744863023723</v>
-          </cell>
-          <cell r="D402">
-            <v>-11.619698274826257</v>
-          </cell>
-        </row>
-        <row r="403">
-          <cell r="A403">
-            <v>9128.4289494291497</v>
-          </cell>
-          <cell r="D403">
-            <v>-11.811717181015508</v>
-          </cell>
-        </row>
-        <row r="404">
-          <cell r="A404">
-            <v>9338.9280548895204</v>
-          </cell>
-          <cell r="D404">
-            <v>-12.003989246262528</v>
-          </cell>
-        </row>
-        <row r="405">
-          <cell r="A405">
-            <v>9554.2812128538972</v>
-          </cell>
-          <cell r="D405">
-            <v>-12.196503513485798</v>
-          </cell>
-        </row>
-        <row r="406">
-          <cell r="A406">
-            <v>9774.600356461664</v>
-          </cell>
-          <cell r="D406">
-            <v>-12.389249445659216</v>
-          </cell>
-        </row>
-        <row r="407">
-          <cell r="A407">
-            <v>10000.000000000158</v>
-          </cell>
-          <cell r="D407">
-            <v>-12.582216910799742</v>
-          </cell>
-        </row>
-        <row r="408">
-          <cell r="A408">
-            <v>10230.597298425248</v>
-          </cell>
-          <cell r="D408">
-            <v>-12.775396167254751</v>
-          </cell>
-        </row>
-        <row r="409">
-          <cell r="A409">
-            <v>10466.512108254432</v>
-          </cell>
-          <cell r="D409">
-            <v>-12.968777849272069</v>
-          </cell>
-        </row>
-        <row r="410">
-          <cell r="A410">
-            <v>10707.867049864124</v>
-          </cell>
-          <cell r="D410">
-            <v>-13.162352952896546</v>
-          </cell>
-        </row>
-        <row r="411">
-          <cell r="A411">
-            <v>10954.787571223491</v>
-          </cell>
-          <cell r="D411">
-            <v>-13.356112822166327</v>
-          </cell>
-        </row>
-        <row r="412">
-          <cell r="A412">
-            <v>11207.402013097975</v>
-          </cell>
-          <cell r="D412">
-            <v>-13.550049135647518</v>
-          </cell>
-        </row>
-        <row r="413">
-          <cell r="A413">
-            <v>11465.841675756401</v>
-          </cell>
-          <cell r="D413">
-            <v>-13.74415389328551</v>
-          </cell>
-        </row>
-        <row r="414">
-          <cell r="A414">
-            <v>11730.24088721632</v>
-          </cell>
-          <cell r="D414">
-            <v>-13.938419403583191</v>
-          </cell>
-        </row>
-        <row r="415">
-          <cell r="A415">
-            <v>12000.737073063076</v>
-          </cell>
-          <cell r="D415">
-            <v>-14.132838271114121</v>
-          </cell>
-        </row>
-        <row r="416">
-          <cell r="A416">
-            <v>12277.470827878888</v>
-          </cell>
-          <cell r="D416">
-            <v>-14.327403384355058</v>
-          </cell>
-        </row>
-        <row r="417">
-          <cell r="A417">
-            <v>12560.585988319055</v>
-          </cell>
-          <cell r="D417">
-            <v>-14.522107903848314</v>
-          </cell>
-        </row>
-        <row r="418">
-          <cell r="A418">
-            <v>12850.229707873292</v>
-          </cell>
-          <cell r="D418">
-            <v>-14.716945250688052</v>
-          </cell>
-        </row>
-        <row r="419">
-          <cell r="A419">
-            <v>13146.552533351029</v>
-          </cell>
-          <cell r="D419">
-            <v>-14.911909095314888</v>
-          </cell>
-        </row>
-        <row r="420">
-          <cell r="A420">
-            <v>13449.708483130451</v>
-          </cell>
-          <cell r="D420">
-            <v>-15.106993346629064</v>
-          </cell>
-        </row>
-        <row r="421">
-          <cell r="A421">
-            <v>13759.855127211935</v>
-          </cell>
-          <cell r="D421">
-            <v>-15.302192141420115</v>
-          </cell>
-        </row>
-        <row r="422">
-          <cell r="A422">
-            <v>14077.153669117499</v>
-          </cell>
-          <cell r="D422">
-            <v>-15.497499834071558</v>
-          </cell>
-        </row>
-        <row r="423">
-          <cell r="A423">
-            <v>14401.769029678828</v>
-          </cell>
-          <cell r="D423">
-            <v>-15.6929109865815</v>
-          </cell>
-        </row>
-        <row r="424">
-          <cell r="A424">
-            <v>14733.869932757429</v>
-          </cell>
-          <cell r="D424">
-            <v>-15.888420358859412</v>
-          </cell>
-        </row>
-        <row r="425">
-          <cell r="A425">
-            <v>15073.628992941474</v>
-          </cell>
-          <cell r="D425">
-            <v>-16.084022899304244</v>
-          </cell>
-        </row>
-        <row r="426">
-          <cell r="A426">
-            <v>15421.22280526491</v>
-          </cell>
-          <cell r="D426">
-            <v>-16.279713735635006</v>
-          </cell>
-        </row>
-        <row r="427">
-          <cell r="A427">
-            <v>15776.832036995451</v>
-          </cell>
-          <cell r="D427">
-            <v>-16.475488166007452</v>
-          </cell>
-        </row>
-        <row r="428">
-          <cell r="A428">
-            <v>16140.641521539201</v>
-          </cell>
-          <cell r="D428">
-            <v>-16.671341650363395</v>
-          </cell>
-        </row>
-        <row r="429">
-          <cell r="A429">
-            <v>16512.84035451067</v>
-          </cell>
-          <cell r="D429">
-            <v>-16.867269802022708</v>
-          </cell>
-        </row>
-        <row r="430">
-          <cell r="A430">
-            <v>16893.621992018161</v>
-          </cell>
-          <cell r="D430">
-            <v>-17.06326837952113</v>
-          </cell>
-        </row>
-        <row r="431">
-          <cell r="A431">
-            <v>17283.184351215561</v>
-          </cell>
-          <cell r="D431">
-            <v>-17.259333278642444</v>
-          </cell>
-        </row>
-        <row r="432">
-          <cell r="A432">
-            <v>17681.729913172865</v>
-          </cell>
-          <cell r="D432">
-            <v>-17.455460524698296</v>
-          </cell>
-        </row>
-        <row r="433">
-          <cell r="A433">
-            <v>18089.465828118835</v>
-          </cell>
-          <cell r="D433">
-            <v>-17.651646264984457</v>
-          </cell>
-        </row>
-        <row r="434">
-          <cell r="A434">
-            <v>18506.604023110547</v>
-          </cell>
-          <cell r="D434">
-            <v>-17.847886761436769</v>
-          </cell>
-        </row>
-        <row r="435">
-          <cell r="A435">
-            <v>18933.36131218576</v>
-          </cell>
-          <cell r="D435">
-            <v>-18.044178383477828</v>
-          </cell>
-        </row>
-        <row r="436">
-          <cell r="A436">
-            <v>19369.959509055367</v>
-          </cell>
-          <cell r="D436">
-            <v>-18.240517601021892</v>
-          </cell>
-        </row>
-        <row r="437">
-          <cell r="A437">
-            <v>19816.625542394515</v>
-          </cell>
-          <cell r="D437">
-            <v>-18.436900977656553</v>
-          </cell>
-        </row>
-        <row r="438">
-          <cell r="A438">
-            <v>20273.591573792288</v>
-          </cell>
-          <cell r="D438">
-            <v>-18.633325163964333</v>
-          </cell>
-        </row>
-        <row r="439">
-          <cell r="A439">
-            <v>20741.095118421297</v>
-          </cell>
-          <cell r="D439">
-            <v>-18.829786890991699</v>
-          </cell>
-        </row>
-        <row r="440">
-          <cell r="A440">
-            <v>21219.379168489868</v>
-          </cell>
-          <cell r="D440">
-            <v>-19.026282963862883</v>
-          </cell>
-        </row>
-        <row r="441">
-          <cell r="A441">
-            <v>21708.692319540998</v>
-          </cell>
-          <cell r="D441">
-            <v>-19.222810255480642</v>
-          </cell>
-        </row>
-        <row r="442">
-          <cell r="A442">
-            <v>22209.288899663756</v>
-          </cell>
-          <cell r="D442">
-            <v>-19.419365700379693</v>
-          </cell>
-        </row>
-        <row r="443">
-          <cell r="A443">
-            <v>22721.429101684225</v>
-          </cell>
-          <cell r="D443">
-            <v>-19.615946288652822</v>
-          </cell>
-        </row>
-        <row r="444">
-          <cell r="A444">
-            <v>23245.379118404777</v>
-          </cell>
-          <cell r="D444">
-            <v>-19.812549059988349</v>
-          </cell>
-        </row>
-        <row r="445">
-          <cell r="A445">
-            <v>23781.411280961882</v>
-          </cell>
-          <cell r="D445">
-            <v>-20.009171097761968</v>
-          </cell>
-        </row>
-        <row r="446">
-          <cell r="A446">
-            <v>24329.804200374449</v>
-          </cell>
-          <cell r="D446">
-            <v>-20.205809523237864</v>
-          </cell>
-        </row>
-        <row r="447">
-          <cell r="A447">
-            <v>24890.842912356213</v>
-          </cell>
-          <cell r="D447">
-            <v>-20.402461489793833</v>
-          </cell>
-        </row>
-        <row r="448">
-          <cell r="A448">
-            <v>25464.819025467466</v>
-          </cell>
-          <cell r="D448">
-            <v>-20.599124177222357</v>
-          </cell>
-        </row>
-        <row r="449">
-          <cell r="A449">
-            <v>26052.030872683121</v>
-          </cell>
-          <cell r="D449">
-            <v>-20.795794786056462</v>
-          </cell>
-        </row>
-        <row r="450">
-          <cell r="A450">
-            <v>26652.783666455885</v>
-          </cell>
-          <cell r="D450">
-            <v>-20.992470531940207</v>
-          </cell>
-        </row>
-        <row r="451">
-          <cell r="A451">
-            <v>27267.389657355183</v>
-          </cell>
-          <cell r="D451">
-            <v>-21.189148640005438</v>
-          </cell>
-        </row>
-        <row r="452">
-          <cell r="A452">
-            <v>27896.168296364205</v>
-          </cell>
-          <cell r="D452">
-            <v>-21.385826339271652</v>
-          </cell>
-        </row>
-        <row r="453">
-          <cell r="A453">
-            <v>28539.446400919518</v>
-          </cell>
-          <cell r="D453">
-            <v>-21.58250085703369</v>
-          </cell>
-        </row>
-        <row r="454">
-          <cell r="A454">
-            <v>29197.558324779475</v>
-          </cell>
-          <cell r="D454">
-            <v>-21.779169413250724</v>
-          </cell>
-        </row>
-        <row r="455">
-          <cell r="A455">
-            <v>29870.846131809776</v>
-          </cell>
-          <cell r="D455">
-            <v>-21.975829214900095</v>
-          </cell>
-        </row>
-        <row r="456">
-          <cell r="A456">
-            <v>30559.659773776453</v>
-          </cell>
-          <cell r="D456">
-            <v>-22.172477450313526</v>
-          </cell>
-        </row>
-        <row r="457">
-          <cell r="A457">
-            <v>31264.357272238714</v>
-          </cell>
-          <cell r="D457">
-            <v>-22.369111283461027</v>
-          </cell>
-        </row>
-        <row r="458">
-          <cell r="A458">
-            <v>31985.304904636207</v>
-          </cell>
-          <cell r="D458">
-            <v>-22.565727848186512</v>
-          </cell>
-        </row>
-        <row r="459">
-          <cell r="A459">
-            <v>32722.877394667383</v>
-          </cell>
-          <cell r="D459">
-            <v>-22.76232424237449</v>
-          </cell>
-        </row>
-        <row r="460">
-          <cell r="A460">
-            <v>33477.458107057944</v>
-          </cell>
-          <cell r="D460">
-            <v>-22.95889752205057</v>
-          </cell>
-        </row>
-        <row r="461">
-          <cell r="A461">
-            <v>34249.439246820599</v>
-          </cell>
-          <cell r="D461">
-            <v>-23.155444695385686</v>
-          </cell>
-        </row>
-        <row r="462">
-          <cell r="A462">
-            <v>35039.222063109693</v>
-          </cell>
-          <cell r="D462">
-            <v>-23.351962716604433</v>
-          </cell>
-        </row>
-        <row r="463">
-          <cell r="A463">
-            <v>35847.217057776666</v>
-          </cell>
-          <cell r="D463">
-            <v>-23.548448479794221</v>
-          </cell>
-        </row>
-        <row r="464">
-          <cell r="A464">
-            <v>36673.844198734761</v>
-          </cell>
-          <cell r="D464">
-            <v>-23.744898812576196</v>
-          </cell>
-        </row>
-        <row r="465">
-          <cell r="A465">
-            <v>37519.533138243838</v>
-          </cell>
-          <cell r="D465">
-            <v>-23.941310469655019</v>
-          </cell>
-        </row>
-        <row r="466">
-          <cell r="A466">
-            <v>38384.723436228793</v>
-          </cell>
-          <cell r="D466">
-            <v>-24.137680126222286</v>
-          </cell>
-        </row>
-        <row r="467">
-          <cell r="A467">
-            <v>39269.86478874764</v>
-          </cell>
-          <cell r="D467">
-            <v>-24.334004371197928</v>
-          </cell>
-        </row>
-        <row r="468">
-          <cell r="A468">
-            <v>40175.417261727998</v>
-          </cell>
-          <cell r="D468">
-            <v>-24.530279700299985</v>
-          </cell>
-        </row>
-        <row r="469">
-          <cell r="A469">
-            <v>41101.851530093503</v>
-          </cell>
-          <cell r="D469">
-            <v>-24.726502508934544</v>
-          </cell>
-        </row>
-        <row r="470">
-          <cell r="A470">
-            <v>42049.649122404357</v>
-          </cell>
-          <cell r="D470">
-            <v>-24.922669084891503</v>
-          </cell>
-        </row>
-        <row r="471">
-          <cell r="A471">
-            <v>43019.302671139281</v>
-          </cell>
-          <cell r="D471">
-            <v>-25.118775600813528</v>
-          </cell>
-        </row>
-        <row r="472">
-          <cell r="A472">
-            <v>44011.316168748861</v>
-          </cell>
-          <cell r="D472">
-            <v>-25.314818106463019</v>
-          </cell>
-        </row>
-        <row r="473">
-          <cell r="A473">
-            <v>45026.205229613442</v>
-          </cell>
-          <cell r="D473">
-            <v>-25.510792520728842</v>
-          </cell>
-        </row>
-        <row r="474">
-          <cell r="A474">
-            <v>46064.497358041677</v>
-          </cell>
-          <cell r="D474">
-            <v>-25.706694623389904</v>
-          </cell>
-        </row>
-        <row r="475">
-          <cell r="A475">
-            <v>47126.732222449071</v>
-          </cell>
-          <cell r="D475">
-            <v>-25.902520046611563</v>
-          </cell>
-        </row>
-        <row r="476">
-          <cell r="A476">
-            <v>48213.461935858992</v>
-          </cell>
-          <cell r="D476">
-            <v>-26.098264266145112</v>
-          </cell>
-        </row>
-        <row r="477">
-          <cell r="A477">
-            <v>49325.251342871969</v>
-          </cell>
-          <cell r="D477">
-            <v>-26.293922592240548</v>
-          </cell>
-        </row>
-        <row r="478">
-          <cell r="A478">
-            <v>50462.678313252429</v>
-          </cell>
-          <cell r="D478">
-            <v>-26.489490160226051</v>
-          </cell>
-        </row>
-        <row r="479">
-          <cell r="A479">
-            <v>51626.334042285445</v>
-          </cell>
-          <cell r="D479">
-            <v>-26.684961920772178</v>
-          </cell>
-        </row>
-        <row r="480">
-          <cell r="A480">
-            <v>52816.82335805965</v>
-          </cell>
-          <cell r="D480">
-            <v>-26.88033262978978</v>
-          </cell>
-        </row>
-        <row r="481">
-          <cell r="A481">
-            <v>54034.765035836004</v>
-          </cell>
-          <cell r="D481">
-            <v>-27.075596837957235</v>
-          </cell>
-        </row>
-        <row r="482">
-          <cell r="A482">
-            <v>55280.792119665814</v>
-          </cell>
-          <cell r="D482">
-            <v>-27.270748879877157</v>
-          </cell>
-        </row>
-        <row r="483">
-          <cell r="A483">
-            <v>56555.552251425186</v>
-          </cell>
-          <cell r="D483">
-            <v>-27.46578286280328</v>
-          </cell>
-        </row>
-        <row r="484">
-          <cell r="A484">
-            <v>57859.70800743693</v>
-          </cell>
-          <cell r="D484">
-            <v>-27.660692654955362</v>
-          </cell>
-        </row>
-        <row r="485">
-          <cell r="A485">
-            <v>59193.93724285486</v>
-          </cell>
-          <cell r="D485">
-            <v>-27.855471873388041</v>
-          </cell>
-        </row>
-        <row r="486">
-          <cell r="A486">
-            <v>60558.933443989503</v>
-          </cell>
-          <cell r="D486">
-            <v>-28.050113871385104</v>
-          </cell>
-        </row>
-        <row r="487">
-          <cell r="A487">
-            <v>61955.406088758362</v>
-          </cell>
-          <cell r="D487">
-            <v>-28.244611725371076</v>
-          </cell>
-        </row>
-        <row r="488">
-          <cell r="A488">
-            <v>63384.081015448042</v>
-          </cell>
-          <cell r="D488">
-            <v>-28.438958221309605</v>
-          </cell>
-        </row>
-        <row r="489">
-          <cell r="A489">
-            <v>64845.700799979953</v>
-          </cell>
-          <cell r="D489">
-            <v>-28.633145840580049</v>
-          </cell>
-        </row>
-        <row r="490">
-          <cell r="A490">
-            <v>66341.025141875638</v>
-          </cell>
-          <cell r="D490">
-            <v>-28.827166745283797</v>
-          </cell>
-        </row>
-        <row r="491">
-          <cell r="A491">
-            <v>67870.831259122366</v>
-          </cell>
-          <cell r="D491">
-            <v>-29.021012762983581</v>
-          </cell>
-        </row>
-        <row r="492">
-          <cell r="A492">
-            <v>69435.914292144211</v>
-          </cell>
-          <cell r="D492">
-            <v>-29.21467537083587</v>
-          </cell>
-        </row>
-        <row r="493">
-          <cell r="A493">
-            <v>71037.087717088638</v>
-          </cell>
-          <cell r="D493">
-            <v>-29.408145679100578</v>
-          </cell>
-        </row>
-        <row r="494">
-          <cell r="A494">
-            <v>72675.183768643285</v>
-          </cell>
-          <cell r="D494">
-            <v>-29.601414413989829</v>
-          </cell>
-        </row>
-        <row r="495">
-          <cell r="A495">
-            <v>74351.053872602861</v>
-          </cell>
-          <cell r="D495">
-            <v>-29.794471899847995</v>
-          </cell>
-        </row>
-        <row r="496">
-          <cell r="A496">
-            <v>76065.569088410892</v>
-          </cell>
-          <cell r="D496">
-            <v>-29.987308040625233</v>
-          </cell>
-        </row>
-        <row r="497">
-          <cell r="A497">
-            <v>77819.620561906326</v>
-          </cell>
-          <cell r="D497">
-            <v>-30.179912300611743</v>
-          </cell>
-        </row>
-        <row r="498">
-          <cell r="A498">
-            <v>79614.119988510414</v>
-          </cell>
-          <cell r="D498">
-            <v>-30.372273684421891</v>
-          </cell>
-        </row>
-        <row r="499">
-          <cell r="A499">
-            <v>81450.000087094522</v>
-          </cell>
-          <cell r="D499">
-            <v>-30.564380716180892</v>
-          </cell>
-        </row>
-        <row r="500">
-          <cell r="A500">
-            <v>83328.21508477522</v>
-          </cell>
-          <cell r="D500">
-            <v>-30.756221417907202</v>
-          </cell>
-        </row>
-        <row r="501">
-          <cell r="A501">
-            <v>85249.741212888592</v>
-          </cell>
-          <cell r="D501">
-            <v>-30.947783287038352</v>
-          </cell>
-        </row>
-        <row r="502">
-          <cell r="A502">
-            <v>87215.577214401579</v>
-          </cell>
-          <cell r="D502">
-            <v>-31.139053273081089</v>
-          </cell>
-        </row>
-        <row r="503">
-          <cell r="A503">
-            <v>89226.744863024127</v>
-          </cell>
-          <cell r="D503">
-            <v>-31.330017753363482</v>
-          </cell>
-        </row>
-        <row r="504">
-          <cell r="A504">
-            <v>91284.289494291908</v>
-          </cell>
-          <cell r="D504">
-            <v>-31.520662507837869</v>
-          </cell>
-        </row>
-        <row r="505">
-          <cell r="A505">
-            <v>93389.280548895622</v>
-          </cell>
-          <cell r="D505">
-            <v>-31.710972692924365</v>
-          </cell>
-        </row>
-        <row r="506">
-          <cell r="A506">
-            <v>95542.812128539401</v>
-          </cell>
-          <cell r="D506">
-            <v>-31.900932814347772</v>
-          </cell>
-        </row>
-        <row r="507">
-          <cell r="A507">
-            <v>97746.003564617073</v>
-          </cell>
-          <cell r="D507">
-            <v>-32.090526698942774</v>
-          </cell>
-        </row>
-        <row r="508">
-          <cell r="A508">
-            <v>100000.00000000202</v>
-          </cell>
-          <cell r="D508">
-            <v>-32.279737465391392</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="A3">
             <v>1</v>
-          </cell>
-          <cell r="B3">
-            <v>3.5328512815314199</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1.0232929922807501</v>
-          </cell>
-          <cell r="B4">
-            <v>3.5318985884502201</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1.0471285480508901</v>
-          </cell>
-          <cell r="B5">
-            <v>3.5319601033138102</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1.0715193052376</v>
-          </cell>
-          <cell r="B6">
-            <v>3.5316470296167601</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1.09647819614318</v>
-          </cell>
-          <cell r="B7">
-            <v>3.5321558351973699</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1.12201845430196</v>
-          </cell>
-          <cell r="B8">
-            <v>3.5320746681587698</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1.1481536214968799</v>
-          </cell>
-          <cell r="B9">
-            <v>3.5317111643204302</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1.17489755493953</v>
-          </cell>
-          <cell r="B10">
-            <v>3.53187103598124</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1.2022644346174101</v>
-          </cell>
-          <cell r="B11">
-            <v>3.5313958455541998</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1.2302687708123801</v>
-          </cell>
-          <cell r="B12">
-            <v>3.5317364072345701</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1.25892541179416</v>
-          </cell>
-          <cell r="B13">
-            <v>3.5318560349402399</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1.28824955169313</v>
-          </cell>
-          <cell r="B14">
-            <v>3.5320027581381601</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>1.3182567385563999</v>
-          </cell>
-          <cell r="B15">
-            <v>3.5318272727527602</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>1.34896288259165</v>
-          </cell>
-          <cell r="B16">
-            <v>3.53198730240798</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>1.3803842646028801</v>
-          </cell>
-          <cell r="B17">
-            <v>3.5319253858487398</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>1.4125375446227499</v>
-          </cell>
-          <cell r="B18">
-            <v>3.5319400248705102</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>1.4454397707459199</v>
-          </cell>
-          <cell r="B19">
-            <v>3.5314255571831601</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>1.4791083881681999</v>
-          </cell>
-          <cell r="B20">
-            <v>3.5324647593037302</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>1.5135612484362</v>
-          </cell>
-          <cell r="B21">
-            <v>3.53125993860951</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>1.5488166189124799</v>
-          </cell>
-          <cell r="B22">
-            <v>3.53189369450181</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>1.58489319246111</v>
-          </cell>
-          <cell r="B23">
-            <v>3.5325405724023802</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>1.62181009735892</v>
-          </cell>
-          <cell r="B24">
-            <v>3.5323395327858398</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>1.65958690743756</v>
-          </cell>
-          <cell r="B25">
-            <v>3.5327858451407801</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>1.6982436524617399</v>
-          </cell>
-          <cell r="B26">
-            <v>3.53261871037859</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>1.73780082874937</v>
-          </cell>
-          <cell r="B27">
-            <v>3.53294816217594</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>1.7782794100389201</v>
-          </cell>
-          <cell r="B28">
-            <v>3.5317224751771401</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>1.8197008586099801</v>
-          </cell>
-          <cell r="B29">
-            <v>3.5318381663655698</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>1.86208713666286</v>
-          </cell>
-          <cell r="B30">
-            <v>3.5321190789219501</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>1.9054607179632399</v>
-          </cell>
-          <cell r="B31">
-            <v>3.5318275102455399</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>1.94984459975804</v>
-          </cell>
-          <cell r="B32">
-            <v>3.5322949671676702</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>1.99526231496888</v>
-          </cell>
-          <cell r="B33">
-            <v>3.5322652310765501</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>2.0417379446695301</v>
-          </cell>
-          <cell r="B34">
-            <v>3.53267928618589</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>2.0892961308540401</v>
-          </cell>
-          <cell r="B35">
-            <v>3.5323813402930702</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>2.13796208950223</v>
-          </cell>
-          <cell r="B36">
-            <v>3.5323896937433701</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>2.1877616239495499</v>
-          </cell>
-          <cell r="B37">
-            <v>3.5324889778188999</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>2.2387211385683399</v>
-          </cell>
-          <cell r="B38">
-            <v>3.5323291083028399</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>2.29086765276777</v>
-          </cell>
-          <cell r="B39">
-            <v>3.5322109009797198</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>2.3442288153199198</v>
-          </cell>
-          <cell r="B40">
-            <v>3.5325600966188002</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>2.3988329190194899</v>
-          </cell>
-          <cell r="B41">
-            <v>3.5323861348324699</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>2.4547089156850199</v>
-          </cell>
-          <cell r="B42">
-            <v>3.5326666917903</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>2.5118864315095699</v>
-          </cell>
-          <cell r="B43">
-            <v>3.5323960302541</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>2.5703957827688599</v>
-          </cell>
-          <cell r="B44">
-            <v>3.53269922756032</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>2.63026799189538</v>
-          </cell>
-          <cell r="B45">
-            <v>3.5325198353292202</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>2.6915348039269098</v>
-          </cell>
-          <cell r="B46">
-            <v>3.5322684047142099</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>2.7542287033381601</v>
-          </cell>
-          <cell r="B47">
-            <v>3.5322177208614698</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>2.8183829312644502</v>
-          </cell>
-          <cell r="B48">
-            <v>3.5321854845663001</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>2.8840315031266002</v>
-          </cell>
-          <cell r="B49">
-            <v>3.5321067230423302</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>2.9512092266663799</v>
-          </cell>
-          <cell r="B50">
-            <v>3.53229213405193</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>3.0199517204020099</v>
-          </cell>
-          <cell r="B51">
-            <v>3.53254318961487</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>3.0902954325135901</v>
-          </cell>
-          <cell r="B52">
-            <v>3.53249346271414</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>3.1622776601683702</v>
-          </cell>
-          <cell r="B53">
-            <v>3.5324474419738898</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>3.23593656929628</v>
-          </cell>
-          <cell r="B54">
-            <v>3.5327415216723002</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>3.3113112148259001</v>
-          </cell>
-          <cell r="B55">
-            <v>3.5324627848224002</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>3.3884415613920198</v>
-          </cell>
-          <cell r="B56">
-            <v>3.5324743309450501</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>3.46736850452531</v>
-          </cell>
-          <cell r="B57">
-            <v>3.53256137323006</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>3.5481338923357502</v>
-          </cell>
-          <cell r="B58">
-            <v>3.5327487135722202</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>3.63078054770101</v>
-          </cell>
-          <cell r="B59">
-            <v>3.53260180838357</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>3.7153522909717198</v>
-          </cell>
-          <cell r="B60">
-            <v>3.5324135255820699</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>3.8018939632056101</v>
-          </cell>
-          <cell r="B61">
-            <v>3.5324729458953001</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>3.8904514499428</v>
-          </cell>
-          <cell r="B62">
-            <v>3.5325664267672399</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>3.9810717055349598</v>
-          </cell>
-          <cell r="B63">
-            <v>3.53253084207936</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>4.0738027780411299</v>
-          </cell>
-          <cell r="B64">
-            <v>3.5323059669746102</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>4.1686938347033502</v>
-          </cell>
-          <cell r="B65">
-            <v>3.53226084440709</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>4.2657951880159199</v>
-          </cell>
-          <cell r="B66">
-            <v>3.5321267564765999</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>4.3651583224016504</v>
-          </cell>
-          <cell r="B67">
-            <v>3.5325084457622902</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>4.46683592150963</v>
-          </cell>
-          <cell r="B68">
-            <v>3.53262184930905</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>4.5708818961487498</v>
-          </cell>
-          <cell r="B69">
-            <v>3.5327228321329098</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>4.67735141287198</v>
-          </cell>
-          <cell r="B70">
-            <v>3.5326519594388199</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>4.7863009232263796</v>
-          </cell>
-          <cell r="B71">
-            <v>3.53220854013483</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>4.8977881936844598</v>
-          </cell>
-          <cell r="B72">
-            <v>3.5321412455310099</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>5.0118723362727202</v>
-          </cell>
-          <cell r="B73">
-            <v>3.5324563067010302</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>5.1286138399136396</v>
-          </cell>
-          <cell r="B74">
-            <v>3.5323595354805</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>5.2480746024977201</v>
-          </cell>
-          <cell r="B75">
-            <v>3.5325453358792198</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>5.3703179637025302</v>
-          </cell>
-          <cell r="B76">
-            <v>3.5324500031792501</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>5.4954087385762396</v>
-          </cell>
-          <cell r="B77">
-            <v>3.5324343650202499</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>5.6234132519034903</v>
-          </cell>
-          <cell r="B78">
-            <v>3.5324275147900801</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>5.7543993733715597</v>
-          </cell>
-          <cell r="B79">
-            <v>3.5326359601649799</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>5.8884365535558896</v>
-          </cell>
-          <cell r="B80">
-            <v>3.5325189038731502</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>6.0255958607435796</v>
-          </cell>
-          <cell r="B81">
-            <v>3.5322025675670599</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>6.1659500186148204</v>
-          </cell>
-          <cell r="B82">
-            <v>3.5326914318975602</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>6.3095734448019201</v>
-          </cell>
-          <cell r="B83">
-            <v>3.5324980392278902</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>6.4565422903465599</v>
-          </cell>
-          <cell r="B84">
-            <v>3.5324857607115301</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>6.6069344800759602</v>
-          </cell>
-          <cell r="B85">
-            <v>3.5325722456876001</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>6.7608297539198103</v>
-          </cell>
-          <cell r="B86">
-            <v>3.5325007858170698</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>6.9183097091893604</v>
-          </cell>
-          <cell r="B87">
-            <v>3.5325203310079099</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>7.0794578438413804</v>
-          </cell>
-          <cell r="B88">
-            <v>3.5326542829046299</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>7.24435960074989</v>
-          </cell>
-          <cell r="B89">
-            <v>3.5320868290890699</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>7.4131024130091596</v>
-          </cell>
-          <cell r="B90">
-            <v>3.5326766917324899</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>7.5857757502918304</v>
-          </cell>
-          <cell r="B91">
-            <v>3.53259151914986</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>7.7624711662869101</v>
-          </cell>
-          <cell r="B92">
-            <v>3.5326639288207899</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>7.9432823472427998</v>
-          </cell>
-          <cell r="B93">
-            <v>3.53228671735094</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>8.1283051616409896</v>
-          </cell>
-          <cell r="B94">
-            <v>3.5328703033434601</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>8.3176377110267001</v>
-          </cell>
-          <cell r="B95">
-            <v>3.5324609992733702</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>8.5113803820237592</v>
-          </cell>
-          <cell r="B96">
-            <v>3.5327807503275799</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>8.7096358995607908</v>
-          </cell>
-          <cell r="B97">
-            <v>3.5327737003316901</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>8.9125093813374399</v>
-          </cell>
-          <cell r="B98">
-            <v>3.53267259193183</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>9.1201083935590894</v>
-          </cell>
-          <cell r="B99">
-            <v>3.5329441046523198</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>9.3325430079698997</v>
-          </cell>
-          <cell r="B100">
-            <v>3.5322864321598701</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>9.5499258602143495</v>
-          </cell>
-          <cell r="B101">
-            <v>3.5321272373967498</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>9.7723722095581103</v>
-          </cell>
-          <cell r="B102">
-            <v>3.5322489961417798</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>10</v>
-          </cell>
-          <cell r="B103">
-            <v>3.5326768556000299</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>10.2329299228075</v>
-          </cell>
-          <cell r="B104">
-            <v>3.53261764452099</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>10.4712854805089</v>
-          </cell>
-          <cell r="B105">
-            <v>3.53234253043885</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>10.715193052376</v>
-          </cell>
-          <cell r="B106">
-            <v>3.5322835135767598</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>10.9647819614318</v>
-          </cell>
-          <cell r="B107">
-            <v>3.5322590582588198</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>11.220184543019601</v>
-          </cell>
-          <cell r="B108">
-            <v>3.5326221886693601</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>11.4815362149688</v>
-          </cell>
-          <cell r="B109">
-            <v>3.53227625101339</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>11.748975549395199</v>
-          </cell>
-          <cell r="B110">
-            <v>3.5321720976960398</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>12.022644346174101</v>
-          </cell>
-          <cell r="B111">
-            <v>3.5319104302606101</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>12.3026877081238</v>
-          </cell>
-          <cell r="B112">
-            <v>3.5322310273748401</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>12.5892541179416</v>
-          </cell>
-          <cell r="B113">
-            <v>3.5318799893144099</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>12.8824955169313</v>
-          </cell>
-          <cell r="B114">
-            <v>3.5317907337003298</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>13.182567385564001</v>
-          </cell>
-          <cell r="B115">
-            <v>3.5316659528930701</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>13.489628825916499</v>
-          </cell>
-          <cell r="B116">
-            <v>3.53180539498819</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>13.8038426460288</v>
-          </cell>
-          <cell r="B117">
-            <v>3.5316813514130798</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>14.125375446227499</v>
-          </cell>
-          <cell r="B118">
-            <v>3.5319071580266601</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>14.454397707459201</v>
-          </cell>
-          <cell r="B119">
-            <v>3.5315113909606302</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>14.791083881682001</v>
-          </cell>
-          <cell r="B120">
-            <v>3.5314331191468402</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>15.135612484361999</v>
-          </cell>
-          <cell r="B121">
-            <v>3.5315835843894301</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>15.488166189124801</v>
-          </cell>
-          <cell r="B122">
-            <v>3.53170795054029</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>15.848931924611099</v>
-          </cell>
-          <cell r="B123">
-            <v>3.5316313219450501</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>16.218100973589198</v>
-          </cell>
-          <cell r="B124">
-            <v>3.5316360302341301</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>16.5958690743755</v>
-          </cell>
-          <cell r="B125">
-            <v>3.5316529957767799</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>16.982436524617398</v>
-          </cell>
-          <cell r="B126">
-            <v>3.53166259700189</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>17.378008287493699</v>
-          </cell>
-          <cell r="B127">
-            <v>3.5315386735856298</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>17.7827941003892</v>
-          </cell>
-          <cell r="B128">
-            <v>3.5316971723470498</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>18.197008586099798</v>
-          </cell>
-          <cell r="B129">
-            <v>3.5313981780200998</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>18.620871366628599</v>
-          </cell>
-          <cell r="B130">
-            <v>3.5315841640578398</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>19.054607179632399</v>
-          </cell>
-          <cell r="B131">
-            <v>3.53169583126114</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>19.498445997580401</v>
-          </cell>
-          <cell r="B132">
-            <v>3.5312833211368799</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>19.952623149688701</v>
-          </cell>
-          <cell r="B133">
-            <v>3.5312974807243198</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>20.4173794466952</v>
-          </cell>
-          <cell r="B134">
-            <v>3.5315208781031702</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>20.8929613085404</v>
-          </cell>
-          <cell r="B135">
-            <v>3.53109177037271</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>21.379620895022299</v>
-          </cell>
-          <cell r="B136">
-            <v>3.5313628138437001</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>21.877616239495499</v>
-          </cell>
-          <cell r="B137">
-            <v>3.5311685821489598</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>22.387211385683401</v>
-          </cell>
-          <cell r="B138">
-            <v>3.5311306358798098</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>22.908676527677699</v>
-          </cell>
-          <cell r="B139">
-            <v>3.5310498535022901</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>23.4422881531992</v>
-          </cell>
-          <cell r="B140">
-            <v>3.5308564181965001</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>23.9883291901949</v>
-          </cell>
-          <cell r="B141">
-            <v>3.5306851301670199</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>24.547089156850301</v>
-          </cell>
-          <cell r="B142">
-            <v>3.53081125619231</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>25.118864315095799</v>
-          </cell>
-          <cell r="B143">
-            <v>3.5309990033799998</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>25.703957827688601</v>
-          </cell>
-          <cell r="B144">
-            <v>3.53099324418868</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>26.3026799189538</v>
-          </cell>
-          <cell r="B145">
-            <v>3.5305080366443899</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>26.915348039269102</v>
-          </cell>
-          <cell r="B146">
-            <v>3.5303274658385799</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>27.542287033381601</v>
-          </cell>
-          <cell r="B147">
-            <v>3.5303890234462698</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>28.183829312644502</v>
-          </cell>
-          <cell r="B148">
-            <v>3.5304352370817802</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>28.840315031266002</v>
-          </cell>
-          <cell r="B149">
-            <v>3.5302098159975799</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>29.512092266663799</v>
-          </cell>
-          <cell r="B150">
-            <v>3.5300917181315499</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>30.199517204020101</v>
-          </cell>
-          <cell r="B151">
-            <v>3.5301433767923101</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>30.902954325135902</v>
-          </cell>
-          <cell r="B152">
-            <v>3.5297277279183898</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>31.6227766016837</v>
-          </cell>
-          <cell r="B153">
-            <v>3.5300261432839801</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>32.359365692962797</v>
-          </cell>
-          <cell r="B154">
-            <v>3.52947810519125</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>33.113112148259098</v>
-          </cell>
-          <cell r="B155">
-            <v>3.5294855102808902</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>33.884415613920197</v>
-          </cell>
-          <cell r="B156">
-            <v>3.5292367028863998</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>34.673685045253102</v>
-          </cell>
-          <cell r="B157">
-            <v>3.5288746310425201</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>35.481338923357498</v>
-          </cell>
-          <cell r="B158">
-            <v>3.5288608555708398</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>36.307805477010099</v>
-          </cell>
-          <cell r="B159">
-            <v>3.5290916720568402</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>37.153522909717204</v>
-          </cell>
-          <cell r="B160">
-            <v>3.5289837117315601</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>38.018939632056103</v>
-          </cell>
-          <cell r="B161">
-            <v>3.5285062775026801</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>38.904514499427997</v>
-          </cell>
-          <cell r="B162">
-            <v>3.52826050796555</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>39.810717055349699</v>
-          </cell>
-          <cell r="B163">
-            <v>3.5282188854292</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>40.738027780411301</v>
-          </cell>
-          <cell r="B164">
-            <v>3.52812161820236</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>41.686938347033497</v>
-          </cell>
-          <cell r="B165">
-            <v>3.5280735091778799</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>42.657951880159303</v>
-          </cell>
-          <cell r="B166">
-            <v>3.5277422078013401</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167">
-            <v>43.651583224016598</v>
-          </cell>
-          <cell r="B167">
-            <v>3.52774545720442</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>44.668359215096302</v>
-          </cell>
-          <cell r="B168">
-            <v>3.5274542652610799</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>45.708818961487502</v>
-          </cell>
-          <cell r="B169">
-            <v>3.5275721662741799</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>46.773514128719803</v>
-          </cell>
-          <cell r="B170">
-            <v>3.5270145350228899</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>47.863009232263899</v>
-          </cell>
-          <cell r="B171">
-            <v>3.52651814246147</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>48.977881936844597</v>
-          </cell>
-          <cell r="B172">
-            <v>3.5266302969272298</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173">
-            <v>50.118723362727202</v>
-          </cell>
-          <cell r="B173">
-            <v>3.5263561777718602</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174">
-            <v>51.286138399136497</v>
-          </cell>
-          <cell r="B174">
-            <v>3.5260798419505002</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175">
-            <v>52.480746024977201</v>
-          </cell>
-          <cell r="B175">
-            <v>3.5257928459108898</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176">
-            <v>53.703179637025201</v>
-          </cell>
-          <cell r="B176">
-            <v>3.5252628473655898</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177">
-            <v>54.954087385762399</v>
-          </cell>
-          <cell r="B177">
-            <v>3.5247790461377</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178">
-            <v>56.234132519034901</v>
-          </cell>
-          <cell r="B178">
-            <v>3.52510863147773</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>57.543993733715602</v>
-          </cell>
-          <cell r="B179">
-            <v>3.5246433711369498</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180">
-            <v>58.8843655355588</v>
-          </cell>
-          <cell r="B180">
-            <v>3.5238872241847599</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181">
-            <v>60.255958607435701</v>
-          </cell>
-          <cell r="B181">
-            <v>3.5235596172194801</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182">
-            <v>61.6595001861482</v>
-          </cell>
-          <cell r="B182">
-            <v>3.5229950292479399</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183">
-            <v>63.0957344480193</v>
-          </cell>
-          <cell r="B183">
-            <v>3.5230683165809502</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>64.565422903465503</v>
-          </cell>
-          <cell r="B184">
-            <v>3.5228786665365401</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>66.069344800759495</v>
-          </cell>
-          <cell r="B185">
-            <v>3.5220254576243302</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>67.608297539198105</v>
-          </cell>
-          <cell r="B186">
-            <v>3.5213907553344201</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>69.1830970918936</v>
-          </cell>
-          <cell r="B187">
-            <v>3.5212457631695302</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>70.794578438413794</v>
-          </cell>
-          <cell r="B188">
-            <v>3.5204649698177999</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>72.443596007498897</v>
-          </cell>
-          <cell r="B189">
-            <v>3.5196281545017798</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>74.131024130091703</v>
-          </cell>
-          <cell r="B190">
-            <v>3.51979853892216</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>75.857757502918304</v>
-          </cell>
-          <cell r="B191">
-            <v>3.5189953904326301</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>77.624711662869103</v>
-          </cell>
-          <cell r="B192">
-            <v>3.5188081367771602</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>79.432823472428097</v>
-          </cell>
-          <cell r="B193">
-            <v>3.51813193637479</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>81.283051616409907</v>
-          </cell>
-          <cell r="B194">
-            <v>3.51739926569054</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>83.176377110266998</v>
-          </cell>
-          <cell r="B195">
-            <v>3.5164551152608099</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>85.113803820237607</v>
-          </cell>
-          <cell r="B196">
-            <v>3.5161063273815198</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197">
-            <v>87.096358995608</v>
-          </cell>
-          <cell r="B197">
-            <v>3.51542067995844</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198">
-            <v>89.125093813374505</v>
-          </cell>
-          <cell r="B198">
-            <v>3.5142314014132299</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199">
-            <v>91.201083935590901</v>
-          </cell>
-          <cell r="B199">
-            <v>3.5136632423674601</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200">
-            <v>93.325430079699103</v>
-          </cell>
-          <cell r="B200">
-            <v>3.5127884291074198</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201">
-            <v>95.499258602143499</v>
-          </cell>
-          <cell r="B201">
-            <v>3.5120617462010002</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>97.723722095581095</v>
-          </cell>
-          <cell r="B202">
-            <v>3.5109698753504301</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>100</v>
-          </cell>
-          <cell r="B203">
-            <v>3.5103368435794602</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>102.329299228075</v>
-          </cell>
-          <cell r="B204">
-            <v>3.5090971798592698</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>104.71285480508899</v>
-          </cell>
-          <cell r="B205">
-            <v>3.5080474908184298</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>107.15193052376</v>
-          </cell>
-          <cell r="B206">
-            <v>3.50690426831118</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>109.647819614318</v>
-          </cell>
-          <cell r="B207">
-            <v>3.5058695232418802</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208">
-            <v>112.201845430196</v>
-          </cell>
-          <cell r="B208">
-            <v>3.5044031023741802</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209">
-            <v>114.815362149688</v>
-          </cell>
-          <cell r="B209">
-            <v>3.5037252059726498</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>117.489755493952</v>
-          </cell>
-          <cell r="B210">
-            <v>3.5022084533587599</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211">
-            <v>120.226443461741</v>
-          </cell>
-          <cell r="B211">
-            <v>3.50071164625875</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212">
-            <v>123.026877081238</v>
-          </cell>
-          <cell r="B212">
-            <v>3.4992710403630798</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213">
-            <v>125.892541179416</v>
-          </cell>
-          <cell r="B213">
-            <v>3.4978315000645299</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214">
-            <v>128.824955169313</v>
-          </cell>
-          <cell r="B214">
-            <v>3.4963329051638401</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215">
-            <v>131.82567385563999</v>
-          </cell>
-          <cell r="B215">
-            <v>3.49517498528279</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216">
-            <v>134.896288259165</v>
-          </cell>
-          <cell r="B216">
-            <v>3.4932734431192198</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217">
-            <v>138.03842646028801</v>
-          </cell>
-          <cell r="B217">
-            <v>3.4912058432845301</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218">
-            <v>141.253754462275</v>
-          </cell>
-          <cell r="B218">
-            <v>3.4896598523161502</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219">
-            <v>144.54397707459199</v>
-          </cell>
-          <cell r="B219">
-            <v>3.48786321396903</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220">
-            <v>147.91083881681999</v>
-          </cell>
-          <cell r="B220">
-            <v>3.4855494596862799</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221">
-            <v>151.35612484361999</v>
-          </cell>
-          <cell r="B221">
-            <v>3.4836808270546999</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222">
-            <v>154.88166189124701</v>
-          </cell>
-          <cell r="B222">
-            <v>3.4814720026501602</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223">
-            <v>158.48931924611099</v>
-          </cell>
-          <cell r="B223">
-            <v>3.4796621806872801</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224">
-            <v>162.18100973589199</v>
-          </cell>
-          <cell r="B224">
-            <v>3.47735041691339</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225">
-            <v>165.958690743755</v>
-          </cell>
-          <cell r="B225">
-            <v>3.4745382763354802</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226">
-            <v>169.82436524617401</v>
-          </cell>
-          <cell r="B226">
-            <v>3.4718806976280598</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227">
-            <v>173.78008287493699</v>
-          </cell>
-          <cell r="B227">
-            <v>3.4693672284006101</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228">
-            <v>177.82794100389199</v>
-          </cell>
-          <cell r="B228">
-            <v>3.4667826353110698</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229">
-            <v>181.97008586099801</v>
-          </cell>
-          <cell r="B229">
-            <v>3.46409875416771</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230">
-            <v>186.208713666286</v>
-          </cell>
-          <cell r="B230">
-            <v>3.46049336757472</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231">
-            <v>190.54607179632399</v>
-          </cell>
-          <cell r="B231">
-            <v>3.4576794736414702</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232">
-            <v>194.98445997580399</v>
-          </cell>
-          <cell r="B232">
-            <v>3.4540771948710298</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="A233">
-            <v>199.52623149688699</v>
-          </cell>
-          <cell r="B233">
-            <v>3.4508227154709501</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="A234">
-            <v>204.17379446695199</v>
-          </cell>
-          <cell r="B234">
-            <v>3.44744691294621</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="A235">
-            <v>208.92961308540299</v>
-          </cell>
-          <cell r="B235">
-            <v>3.4429922443058598</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="A236">
-            <v>213.79620895022299</v>
-          </cell>
-          <cell r="B236">
-            <v>3.4388495368919698</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="A237">
-            <v>218.77616239495501</v>
-          </cell>
-          <cell r="B237">
-            <v>3.4349797975176899</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="A238">
-            <v>223.87211385683301</v>
-          </cell>
-          <cell r="B238">
-            <v>3.4306320355969699</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="A239">
-            <v>229.08676527677699</v>
-          </cell>
-          <cell r="B239">
-            <v>3.4259714069772298</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="A240">
-            <v>234.422881531992</v>
-          </cell>
-          <cell r="B240">
-            <v>3.4211979899937401</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="A241">
-            <v>239.88329190194801</v>
-          </cell>
-          <cell r="B241">
-            <v>3.4162735672283402</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="A242">
-            <v>245.470891568502</v>
-          </cell>
-          <cell r="B242">
-            <v>3.4115398224384599</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="A243">
-            <v>251.18864315095701</v>
-          </cell>
-          <cell r="B243">
-            <v>3.4058312091344098</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="A244">
-            <v>257.039578276886</v>
-          </cell>
-          <cell r="B244">
-            <v>3.4001589635474501</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="A245">
-            <v>263.026799189538</v>
-          </cell>
-          <cell r="B245">
-            <v>3.3942654629652602</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="A246">
-            <v>269.15348039269099</v>
-          </cell>
-          <cell r="B246">
-            <v>3.3883794212887599</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247">
-            <v>275.42287033381598</v>
-          </cell>
-          <cell r="B247">
-            <v>3.3822216896506698</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="A248">
-            <v>281.83829312644502</v>
-          </cell>
-          <cell r="B248">
-            <v>3.3756164717296602</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249">
-            <v>288.40315031265999</v>
-          </cell>
-          <cell r="B249">
-            <v>3.3687384844050601</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250">
-            <v>295.12092266663802</v>
-          </cell>
-          <cell r="B250">
-            <v>3.3607642827846398</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251">
-            <v>301.995172040201</v>
-          </cell>
-          <cell r="B251">
-            <v>3.3533221386012899</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252">
-            <v>309.02954325135897</v>
-          </cell>
-          <cell r="B252">
-            <v>3.3452150175700601</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253">
-            <v>316.22776601683699</v>
-          </cell>
-          <cell r="B253">
-            <v>3.3371164867909102</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254">
-            <v>323.59365692962803</v>
-          </cell>
-          <cell r="B254">
-            <v>3.3286827817851501</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="A255">
-            <v>331.13112148259103</v>
-          </cell>
-          <cell r="B255">
-            <v>3.3196460502613698</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="A256">
-            <v>338.84415613920203</v>
-          </cell>
-          <cell r="B256">
-            <v>3.3103897344855899</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="A257">
-            <v>346.73685045253097</v>
-          </cell>
-          <cell r="B257">
-            <v>3.3005698369420302</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="A258">
-            <v>354.81338923357498</v>
-          </cell>
-          <cell r="B258">
-            <v>3.2904437349273601</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="A259">
-            <v>363.07805477010101</v>
-          </cell>
-          <cell r="B259">
-            <v>3.2794573528437798</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="A260">
-            <v>371.53522909717202</v>
-          </cell>
-          <cell r="B260">
-            <v>3.2679809365816501</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="A261">
-            <v>380.189396320561</v>
-          </cell>
-          <cell r="B261">
-            <v>3.2566574732458702</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="A262">
-            <v>389.04514499428001</v>
-          </cell>
-          <cell r="B262">
-            <v>3.2441952250399102</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="A263">
-            <v>398.10717055349699</v>
-          </cell>
-          <cell r="B263">
-            <v>3.2313407584665002</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="A264">
-            <v>407.38027780411301</v>
-          </cell>
-          <cell r="B264">
-            <v>3.2177906700923899</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="A265">
-            <v>416.86938347033498</v>
-          </cell>
-          <cell r="B265">
-            <v>3.2052167248131398</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="A266">
-            <v>426.57951880159197</v>
-          </cell>
-          <cell r="B266">
-            <v>3.1901740639465102</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="A267">
-            <v>436.51583224016599</v>
-          </cell>
-          <cell r="B267">
-            <v>3.1753450239641898</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="A268">
-            <v>446.68359215096302</v>
-          </cell>
-          <cell r="B268">
-            <v>3.1598789799987199</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="A269">
-            <v>457.08818961487498</v>
-          </cell>
-          <cell r="B269">
-            <v>3.1434385613226401</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="A270">
-            <v>467.73514128719802</v>
-          </cell>
-          <cell r="B270">
-            <v>3.1261423787646199</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="A271">
-            <v>478.63009232263801</v>
-          </cell>
-          <cell r="B271">
-            <v>3.1088809911399702</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="A272">
-            <v>489.77881936844602</v>
-          </cell>
-          <cell r="B272">
-            <v>3.0896683806924399</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="A273">
-            <v>501.18723362727201</v>
-          </cell>
-          <cell r="B273">
-            <v>3.07047431980111</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="A274">
-            <v>512.86138399136405</v>
-          </cell>
-          <cell r="B274">
-            <v>3.0507818150689898</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="A275">
-            <v>524.80746024977202</v>
-          </cell>
-          <cell r="B275">
-            <v>3.03009373428032</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="A276">
-            <v>537.03179637025301</v>
-          </cell>
-          <cell r="B276">
-            <v>3.0091026492240198</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="A277">
-            <v>549.54087385762398</v>
-          </cell>
-          <cell r="B277">
-            <v>2.98606250691379</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="A278">
-            <v>562.34132519034904</v>
-          </cell>
-          <cell r="B278">
-            <v>2.9623036027293099</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="A279">
-            <v>575.43993733715695</v>
-          </cell>
-          <cell r="B279">
-            <v>2.9379513192930902</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="A280">
-            <v>588.84365535558902</v>
-          </cell>
-          <cell r="B280">
-            <v>2.9122315378838999</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="A281">
-            <v>602.55958607435798</v>
-          </cell>
-          <cell r="B281">
-            <v>2.88591345384864</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="A282">
-            <v>616.59500186148205</v>
-          </cell>
-          <cell r="B282">
-            <v>2.8582142824532202</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="A283">
-            <v>630.957344480193</v>
-          </cell>
-          <cell r="B283">
-            <v>2.82941234981489</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="A284">
-            <v>645.65422903465605</v>
-          </cell>
-          <cell r="B284">
-            <v>2.8000121776741</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="A285">
-            <v>660.69344800759495</v>
-          </cell>
-          <cell r="B285">
-            <v>2.7691100064029799</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="A286">
-            <v>676.08297539198099</v>
-          </cell>
-          <cell r="B286">
-            <v>2.7369922388863901</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="A287">
-            <v>691.83097091893603</v>
-          </cell>
-          <cell r="B287">
-            <v>2.7036687547809999</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="A288">
-            <v>707.94578438413703</v>
-          </cell>
-          <cell r="B288">
-            <v>2.6690261451646098</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="A289">
-            <v>724.435960074989</v>
-          </cell>
-          <cell r="B289">
-            <v>2.6332755135807502</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="A290">
-            <v>741.31024130091703</v>
-          </cell>
-          <cell r="B290">
-            <v>2.59570696892174</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="A291">
-            <v>758.57757502918298</v>
-          </cell>
-          <cell r="B291">
-            <v>2.55712966397562</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="A292">
-            <v>776.24711662869095</v>
-          </cell>
-          <cell r="B292">
-            <v>2.51682007589601</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="A293">
-            <v>794.32823472428095</v>
-          </cell>
-          <cell r="B293">
-            <v>2.4754781572698801</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="A294">
-            <v>812.83051616409796</v>
-          </cell>
-          <cell r="B294">
-            <v>2.4324708551079599</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="A295">
-            <v>831.76377110267094</v>
-          </cell>
-          <cell r="B295">
-            <v>2.3880511152219399</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="A296">
-            <v>851.13803820237501</v>
-          </cell>
-          <cell r="B296">
-            <v>2.3419563548259701</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="A297">
-            <v>870.96358995608</v>
-          </cell>
-          <cell r="B297">
-            <v>2.2942103940671901</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="A298">
-            <v>891.25093813374497</v>
-          </cell>
-          <cell r="B298">
-            <v>2.2442736787082098</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="A299">
-            <v>912.01083935590896</v>
-          </cell>
-          <cell r="B299">
-            <v>2.1935649093101199</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="A300">
-            <v>933.25430079699004</v>
-          </cell>
-          <cell r="B300">
-            <v>2.1406576900465799</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="A301">
-            <v>954.99258602143505</v>
-          </cell>
-          <cell r="B301">
-            <v>2.08610096587373</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="A302">
-            <v>977.23722095581002</v>
-          </cell>
-          <cell r="B302">
-            <v>2.0291295848767601</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="A303">
-            <v>1000</v>
-          </cell>
-          <cell r="B303">
-            <v>1.9710800611077799</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="A304">
-            <v>1023.29299228075</v>
-          </cell>
-          <cell r="B304">
-            <v>1.9108668230686201</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="A305">
-            <v>1047.12854805089</v>
-          </cell>
-          <cell r="B305">
-            <v>1.8488506522921699</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="A306">
-            <v>1071.5193052376001</v>
-          </cell>
-          <cell r="B306">
-            <v>1.7853958783909201</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="A307">
-            <v>1096.47819614318</v>
-          </cell>
-          <cell r="B307">
-            <v>1.7190661065889801</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="A308">
-            <v>1122.01845430196</v>
-          </cell>
-          <cell r="B308">
-            <v>1.6502721009013901</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="A309">
-            <v>1148.1536214968801</v>
-          </cell>
-          <cell r="B309">
-            <v>1.5805740867206499</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="A310">
-            <v>1174.89755493952</v>
-          </cell>
-          <cell r="B310">
-            <v>1.50798639011243</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="A311">
-            <v>1202.26443461741</v>
-          </cell>
-          <cell r="B311">
-            <v>1.4348269109812</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="A312">
-            <v>1230.2687708123799</v>
-          </cell>
-          <cell r="B312">
-            <v>1.35754080617036</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="A313">
-            <v>1258.92541179416</v>
-          </cell>
-          <cell r="B313">
-            <v>1.27965699572546</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="A314">
-            <v>1288.2495516931299</v>
-          </cell>
-          <cell r="B314">
-            <v>1.19862406006447</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="A315">
-            <v>1318.2567385564</v>
-          </cell>
-          <cell r="B315">
-            <v>1.1158854814174799</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="A316">
-            <v>1348.96288259165</v>
-          </cell>
-          <cell r="B316">
-            <v>1.03084015082832</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="A317">
-            <v>1380.38426460288</v>
-          </cell>
-          <cell r="B317">
-            <v>0.94422791467294798</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="A318">
-            <v>1412.5375446227499</v>
-          </cell>
-          <cell r="B318">
-            <v>0.85455561937135405</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="A319">
-            <v>1445.43977074592</v>
-          </cell>
-          <cell r="B319">
-            <v>0.76312319622581104</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="A320">
-            <v>1479.1083881682</v>
-          </cell>
-          <cell r="B320">
-            <v>0.66892749119127504</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="A321">
-            <v>1513.5612484362</v>
-          </cell>
-          <cell r="B321">
-            <v>0.57319080103242503</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="A322">
-            <v>1548.81661891248</v>
-          </cell>
-          <cell r="B322">
-            <v>0.47450145231101798</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="A323">
-            <v>1584.8931924611099</v>
-          </cell>
-          <cell r="B323">
-            <v>0.37395110599707798</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="A324">
-            <v>1621.8100973589201</v>
-          </cell>
-          <cell r="B324">
-            <v>0.27113182729508301</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="A325">
-            <v>1659.5869074375601</v>
-          </cell>
-          <cell r="B325">
-            <v>0.16599050490485001</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="A326">
-            <v>1698.2436524617401</v>
-          </cell>
-          <cell r="B326">
-            <v>5.8517998223021103E-2</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="A327">
-            <v>1737.8008287493701</v>
-          </cell>
-          <cell r="B327">
-            <v>-5.0718891212948897E-2</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="A328">
-            <v>1778.2794100389201</v>
-          </cell>
-          <cell r="B328">
-            <v>-0.16145937944331401</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="A329">
-            <v>1819.7008586099801</v>
-          </cell>
-          <cell r="B329">
-            <v>-0.27655025749043</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="A330">
-            <v>1862.0871366628601</v>
-          </cell>
-          <cell r="B330">
-            <v>-0.39284120108495202</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="A331">
-            <v>1905.4607179632401</v>
-          </cell>
-          <cell r="B331">
-            <v>-0.51074176789381498</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="A332">
-            <v>1949.84459975804</v>
-          </cell>
-          <cell r="B332">
-            <v>-0.63119547362168804</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="A333">
-            <v>1995.26231496888</v>
-          </cell>
-          <cell r="B333">
-            <v>-0.75368826384738796</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="A334">
-            <v>2041.7379446695199</v>
-          </cell>
-          <cell r="B334">
-            <v>-0.87798650933759703</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="A335">
-            <v>2089.2961308540398</v>
-          </cell>
-          <cell r="B335">
-            <v>-1.00461737425494</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="A336">
-            <v>2137.9620895022299</v>
-          </cell>
-          <cell r="B336">
-            <v>-1.1337101316815701</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="A337">
-            <v>2187.7616239495501</v>
-          </cell>
-          <cell r="B337">
-            <v>-1.26457870653808</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="A338">
-            <v>2238.7211385683399</v>
-          </cell>
-          <cell r="B338">
-            <v>-1.39724662397461</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="A339">
-            <v>2290.8676527677699</v>
-          </cell>
-          <cell r="B339">
-            <v>-1.5317485737890899</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="A340">
-            <v>2344.2288153199202</v>
-          </cell>
-          <cell r="B340">
-            <v>-1.66927808829896</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="A341">
-            <v>2398.83291901949</v>
-          </cell>
-          <cell r="B341">
-            <v>-1.80708398512279</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="A342">
-            <v>2454.7089156850302</v>
-          </cell>
-          <cell r="B342">
-            <v>-1.9483690581461599</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="A343">
-            <v>2511.8864315095798</v>
-          </cell>
-          <cell r="B343">
-            <v>-2.0899636178607599</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="A344">
-            <v>2570.39578276886</v>
-          </cell>
-          <cell r="B344">
-            <v>-2.2340283531017802</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="A345">
-            <v>2630.26799189538</v>
-          </cell>
-          <cell r="B345">
-            <v>-2.38041553261258</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="A346">
-            <v>2691.5348039269102</v>
-          </cell>
-          <cell r="B346">
-            <v>-2.5278875394264602</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="A347">
-            <v>2754.2287033381599</v>
-          </cell>
-          <cell r="B347">
-            <v>-2.67695974603597</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="A348">
-            <v>2818.3829312644498</v>
-          </cell>
-          <cell r="B348">
-            <v>-2.8279789223313698</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="A349">
-            <v>2884.0315031266</v>
-          </cell>
-          <cell r="B349">
-            <v>-2.9804444326277699</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="A350">
-            <v>2951.2092266663799</v>
-          </cell>
-          <cell r="B350">
-            <v>-3.1341750660685399</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="A351">
-            <v>3019.9517204020099</v>
-          </cell>
-          <cell r="B351">
-            <v>-3.28952595237033</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="A352">
-            <v>3090.2954325135802</v>
-          </cell>
-          <cell r="B352">
-            <v>-3.4464839208815801</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="A353">
-            <v>3162.2776601683699</v>
-          </cell>
-          <cell r="B353">
-            <v>-3.60574408653956</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="A354">
-            <v>3235.9365692962801</v>
-          </cell>
-          <cell r="B354">
-            <v>-3.7651847006827301</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="A355">
-            <v>3311.3112148259002</v>
-          </cell>
-          <cell r="B355">
-            <v>-3.9266753695321901</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="A356">
-            <v>3388.44156139202</v>
-          </cell>
-          <cell r="B356">
-            <v>-4.0918136535569101</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="A357">
-            <v>3467.3685045253101</v>
-          </cell>
-          <cell r="B357">
-            <v>-4.25313052672184</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="A358">
-            <v>3548.1338923357498</v>
-          </cell>
-          <cell r="B358">
-            <v>-4.4185594341562799</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="A359">
-            <v>3630.7805477010102</v>
-          </cell>
-          <cell r="B359">
-            <v>-4.5847557963511996</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="A360">
-            <v>3715.3522909717199</v>
-          </cell>
-          <cell r="B360">
-            <v>-4.7519048183282404</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="A361">
-            <v>3801.8939632056099</v>
-          </cell>
-          <cell r="B361">
-            <v>-4.9208643416953901</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="A362">
-            <v>3890.4514499428001</v>
-          </cell>
-          <cell r="B362">
-            <v>-5.08995041954344</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="A363">
-            <v>3981.0717055349701</v>
-          </cell>
-          <cell r="B363">
-            <v>-5.2620744049488799</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="A364">
-            <v>4073.8027780411198</v>
-          </cell>
-          <cell r="B364">
-            <v>-5.4336407177478403</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="A365">
-            <v>4168.6938347033501</v>
-          </cell>
-          <cell r="B365">
-            <v>-5.6063065276197204</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="A366">
-            <v>4265.7951880159198</v>
-          </cell>
-          <cell r="B366">
-            <v>-5.7807580606052102</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="A367">
-            <v>4365.1583224016504</v>
-          </cell>
-          <cell r="B367">
-            <v>-5.9550831896805798</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="A368">
-            <v>4466.8359215096298</v>
-          </cell>
-          <cell r="B368">
-            <v>-6.1309585205710899</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="A369">
-            <v>4570.8818961487495</v>
-          </cell>
-          <cell r="B369">
-            <v>-6.3077439389446903</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="A370">
-            <v>4677.3514128719798</v>
-          </cell>
-          <cell r="B370">
-            <v>-6.4843945968572596</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="A371">
-            <v>4786.3009232263803</v>
-          </cell>
-          <cell r="B371">
-            <v>-6.6628382260034398</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="A372">
-            <v>4897.7881936844597</v>
-          </cell>
-          <cell r="B372">
-            <v>-6.8413069702669098</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="A373">
-            <v>5011.8723362727196</v>
-          </cell>
-          <cell r="B373">
-            <v>-7.0214624923650399</v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="A374">
-            <v>5128.6138399136398</v>
-          </cell>
-          <cell r="B374">
-            <v>-7.2016045563665703</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="A375">
-            <v>5248.0746024977198</v>
-          </cell>
-          <cell r="B375">
-            <v>-7.3833827787256503</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="A376">
-            <v>5370.3179637025196</v>
-          </cell>
-          <cell r="B376">
-            <v>-7.5656518160040598</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="A377">
-            <v>5495.4087385762396</v>
-          </cell>
-          <cell r="B377">
-            <v>-7.7470792175697101</v>
-          </cell>
-        </row>
-        <row r="378">
-          <cell r="A378">
-            <v>5623.4132519034902</v>
-          </cell>
-          <cell r="B378">
-            <v>-7.9310903982249998</v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="A379">
-            <v>5754.3993733715697</v>
-          </cell>
-          <cell r="B379">
-            <v>-8.1136351888378595</v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="A380">
-            <v>5888.43655355589</v>
-          </cell>
-          <cell r="B380">
-            <v>-8.2963538056554906</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="A381">
-            <v>6025.5958607435696</v>
-          </cell>
-          <cell r="B381">
-            <v>-8.4843192313815194</v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="A382">
-            <v>6165.9500186148198</v>
-          </cell>
-          <cell r="B382">
-            <v>-8.6697630661545304</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="A383">
-            <v>6309.5734448019302</v>
-          </cell>
-          <cell r="B383">
-            <v>-8.8540548567893094</v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="A384">
-            <v>6456.5422903465496</v>
-          </cell>
-          <cell r="B384">
-            <v>-9.0409574403302209</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="A385">
-            <v>6606.93448007596</v>
-          </cell>
-          <cell r="B385">
-            <v>-9.2276238938735506</v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="A386">
-            <v>6760.8297539198102</v>
-          </cell>
-          <cell r="B386">
-            <v>-9.4137499299124201</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="A387">
-            <v>6918.3097091893596</v>
-          </cell>
-          <cell r="B387">
-            <v>-9.5998812949972994</v>
-          </cell>
-        </row>
-        <row r="388">
-          <cell r="A388">
-            <v>7079.4578438413801</v>
-          </cell>
-          <cell r="B388">
-            <v>-9.7891048005325594</v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="A389">
-            <v>7244.3596007499</v>
-          </cell>
-          <cell r="B389">
-            <v>-9.9768561674112703</v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="A390">
-            <v>7413.10241300917</v>
-          </cell>
-          <cell r="B390">
-            <v>-10.1651099565437</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="A391">
-            <v>7585.7757502918403</v>
-          </cell>
-          <cell r="B391">
-            <v>-10.3544309861041</v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="A392">
-            <v>7762.4711662869104</v>
-          </cell>
-          <cell r="B392">
-            <v>-10.5422977256131</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="A393">
-            <v>7943.2823472428099</v>
-          </cell>
-          <cell r="B393">
-            <v>-10.7320174220021</v>
-          </cell>
-        </row>
-        <row r="394">
-          <cell r="A394">
-            <v>8128.3051616409903</v>
-          </cell>
-          <cell r="B394">
-            <v>-10.9208893871677</v>
-          </cell>
-        </row>
-        <row r="395">
-          <cell r="A395">
-            <v>8317.6377110267094</v>
-          </cell>
-          <cell r="B395">
-            <v>-11.1111236670185</v>
-          </cell>
-        </row>
-        <row r="396">
-          <cell r="A396">
-            <v>8511.3803820237608</v>
-          </cell>
-          <cell r="B396">
-            <v>-11.302234808223901</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="A397">
-            <v>8709.6358995608098</v>
-          </cell>
-          <cell r="B397">
-            <v>-11.4923194813402</v>
-          </cell>
-        </row>
-        <row r="398">
-          <cell r="A398">
-            <v>8912.5093813374497</v>
-          </cell>
-          <cell r="B398">
-            <v>-11.6848473914488</v>
-          </cell>
-        </row>
-        <row r="399">
-          <cell r="A399">
-            <v>9120.1083935590996</v>
-          </cell>
-          <cell r="B399">
-            <v>-11.874992921182001</v>
-          </cell>
-        </row>
-        <row r="400">
-          <cell r="A400">
-            <v>9332.5430079699108</v>
-          </cell>
-          <cell r="B400">
-            <v>-12.065351492052001</v>
-          </cell>
-        </row>
-        <row r="401">
-          <cell r="A401">
-            <v>9549.92586021436</v>
-          </cell>
-          <cell r="B401">
-            <v>-12.2560085535835</v>
-          </cell>
-        </row>
-        <row r="402">
-          <cell r="A402">
-            <v>9772.3722095581106</v>
-          </cell>
-          <cell r="B402">
-            <v>-12.448430419083399</v>
-          </cell>
-        </row>
-        <row r="403">
-          <cell r="A403">
-            <v>10000</v>
-          </cell>
-          <cell r="B403">
-            <v>-12.642424878951999</v>
-          </cell>
-        </row>
-        <row r="404">
-          <cell r="A404">
-            <v>10232.9299228075</v>
-          </cell>
-          <cell r="B404">
-            <v>-12.831926919981401</v>
-          </cell>
-        </row>
-        <row r="405">
-          <cell r="A405">
-            <v>10471.285480508999</v>
-          </cell>
-          <cell r="B405">
-            <v>-13.0207772171945</v>
-          </cell>
-        </row>
-        <row r="406">
-          <cell r="A406">
-            <v>10715.193052376</v>
-          </cell>
-          <cell r="B406">
-            <v>-13.213270498517099</v>
-          </cell>
-        </row>
-        <row r="407">
-          <cell r="A407">
-            <v>10964.7819614318</v>
-          </cell>
-          <cell r="B407">
-            <v>-13.407220459032899</v>
-          </cell>
-        </row>
-        <row r="408">
-          <cell r="A408">
-            <v>11220.184543019601</v>
-          </cell>
-          <cell r="B408">
-            <v>-13.598406959045301</v>
-          </cell>
-        </row>
-        <row r="409">
-          <cell r="A409">
-            <v>11481.536214968801</v>
-          </cell>
-          <cell r="B409">
-            <v>-13.790117587027099</v>
-          </cell>
-        </row>
-        <row r="410">
-          <cell r="A410">
-            <v>11748.9755493952</v>
-          </cell>
-          <cell r="B410">
-            <v>-13.9832986620222</v>
-          </cell>
-        </row>
-        <row r="411">
-          <cell r="A411">
-            <v>12022.6443461741</v>
-          </cell>
-          <cell r="B411">
-            <v>-14.1769378030169</v>
-          </cell>
-        </row>
-        <row r="412">
-          <cell r="A412">
-            <v>12302.6877081238</v>
-          </cell>
-          <cell r="B412">
-            <v>-14.366021325420499</v>
-          </cell>
-        </row>
-        <row r="413">
-          <cell r="A413">
-            <v>12589.2541179416</v>
-          </cell>
-          <cell r="B413">
-            <v>-14.5617818091571</v>
-          </cell>
-        </row>
-        <row r="414">
-          <cell r="A414">
-            <v>12882.4955169313</v>
-          </cell>
-          <cell r="B414">
-            <v>-14.753610936492001</v>
-          </cell>
-        </row>
-        <row r="415">
-          <cell r="A415">
-            <v>13182.567385564</v>
-          </cell>
-          <cell r="B415">
-            <v>-14.9428456251607</v>
-          </cell>
-        </row>
-        <row r="416">
-          <cell r="A416">
-            <v>13489.628825916499</v>
-          </cell>
-          <cell r="B416">
-            <v>-15.1335364160245</v>
-          </cell>
-        </row>
-        <row r="417">
-          <cell r="A417">
-            <v>13803.842646028799</v>
-          </cell>
-          <cell r="B417">
-            <v>-15.329882681905101</v>
-          </cell>
-        </row>
-        <row r="418">
-          <cell r="A418">
-            <v>14125.375446227499</v>
-          </cell>
-          <cell r="B418">
-            <v>-15.522759240706099</v>
-          </cell>
-        </row>
-        <row r="419">
-          <cell r="A419">
-            <v>14454.3977074592</v>
-          </cell>
-          <cell r="B419">
-            <v>-15.7149531129999</v>
-          </cell>
-        </row>
-        <row r="420">
-          <cell r="A420">
-            <v>14791.083881682</v>
-          </cell>
-          <cell r="B420">
-            <v>-15.901962078590399</v>
-          </cell>
-        </row>
-        <row r="421">
-          <cell r="A421">
-            <v>15135.612484362</v>
-          </cell>
-          <cell r="B421">
-            <v>-16.0992235040186</v>
-          </cell>
-        </row>
-        <row r="422">
-          <cell r="A422">
-            <v>15488.1661891248</v>
-          </cell>
-          <cell r="B422">
-            <v>-16.296293656859699</v>
-          </cell>
-        </row>
-        <row r="423">
-          <cell r="A423">
-            <v>15848.931924611101</v>
-          </cell>
-          <cell r="B423">
-            <v>-16.485608619630199</v>
-          </cell>
-        </row>
-        <row r="424">
-          <cell r="A424">
-            <v>16218.1009735892</v>
-          </cell>
-          <cell r="B424">
-            <v>-16.676139212608199</v>
-          </cell>
-        </row>
-        <row r="425">
-          <cell r="A425">
-            <v>16595.869074375601</v>
-          </cell>
-          <cell r="B425">
-            <v>-16.865222510197601</v>
-          </cell>
-        </row>
-        <row r="426">
-          <cell r="A426">
-            <v>16982.436524617398</v>
-          </cell>
-          <cell r="B426">
-            <v>-17.057510859268699</v>
-          </cell>
-        </row>
-        <row r="427">
-          <cell r="A427">
-            <v>17378.0082874937</v>
-          </cell>
-          <cell r="B427">
-            <v>-17.244141963597901</v>
-          </cell>
-        </row>
-        <row r="428">
-          <cell r="A428">
-            <v>17782.794100389201</v>
-          </cell>
-          <cell r="B428">
-            <v>-17.437653938463701</v>
-          </cell>
-        </row>
-        <row r="429">
-          <cell r="A429">
-            <v>18197.008586099801</v>
-          </cell>
-          <cell r="B429">
-            <v>-17.634692445703799</v>
-          </cell>
-        </row>
-        <row r="430">
-          <cell r="A430">
-            <v>18620.871366628598</v>
-          </cell>
-          <cell r="B430">
-            <v>-17.8305337645081</v>
-          </cell>
-        </row>
-        <row r="431">
-          <cell r="A431">
-            <v>19054.607179632399</v>
-          </cell>
-          <cell r="B431">
-            <v>-18.007996464653399</v>
-          </cell>
-        </row>
-        <row r="432">
-          <cell r="A432">
-            <v>19498.445997580398</v>
-          </cell>
-          <cell r="B432">
-            <v>-18.200346007271399</v>
-          </cell>
-        </row>
-        <row r="433">
-          <cell r="A433">
-            <v>19952.623149688701</v>
-          </cell>
-          <cell r="B433">
-            <v>-18.392105300629201</v>
-          </cell>
-        </row>
-        <row r="434">
-          <cell r="A434">
-            <v>20417.379446695199</v>
-          </cell>
-          <cell r="B434">
-            <v>-18.5826425145648</v>
-          </cell>
-        </row>
-        <row r="435">
-          <cell r="A435">
-            <v>20892.9613085403</v>
-          </cell>
-          <cell r="B435">
-            <v>-18.765506430645502</v>
-          </cell>
-        </row>
-        <row r="436">
-          <cell r="A436">
-            <v>21379.620895022301</v>
-          </cell>
-          <cell r="B436">
-            <v>-18.9627084415072</v>
-          </cell>
-        </row>
-        <row r="437">
-          <cell r="A437">
-            <v>21877.616239495499</v>
-          </cell>
-          <cell r="B437">
-            <v>-19.149672045849499</v>
-          </cell>
-        </row>
-        <row r="438">
-          <cell r="A438">
-            <v>22387.211385683298</v>
-          </cell>
-          <cell r="B438">
-            <v>-19.327266640685501</v>
-          </cell>
-        </row>
-        <row r="439">
-          <cell r="A439">
-            <v>22908.676527677701</v>
-          </cell>
-          <cell r="B439">
-            <v>-19.525455453115601</v>
-          </cell>
-        </row>
-        <row r="440">
-          <cell r="A440">
-            <v>23442.288153199199</v>
-          </cell>
-          <cell r="B440">
-            <v>-19.709488298162501</v>
-          </cell>
-        </row>
-        <row r="441">
-          <cell r="A441">
-            <v>23988.329190194901</v>
-          </cell>
-          <cell r="B441">
-            <v>-19.896440867231998</v>
-          </cell>
-        </row>
-        <row r="442">
-          <cell r="A442">
-            <v>24547.089156850299</v>
-          </cell>
-          <cell r="B442">
-            <v>-20.082082058407</v>
-          </cell>
-        </row>
-        <row r="443">
-          <cell r="A443">
-            <v>25118.864315095801</v>
-          </cell>
-          <cell r="B443">
-            <v>-20.2749223145697</v>
-          </cell>
-        </row>
-        <row r="444">
-          <cell r="A444">
-            <v>25703.957827688599</v>
-          </cell>
-          <cell r="B444">
-            <v>-20.453953079773701</v>
-          </cell>
-        </row>
-        <row r="445">
-          <cell r="A445">
-            <v>26302.6799189538</v>
-          </cell>
-          <cell r="B445">
-            <v>-20.655958222666602</v>
-          </cell>
-        </row>
-        <row r="446">
-          <cell r="A446">
-            <v>26915.348039269102</v>
-          </cell>
-          <cell r="B446">
-            <v>-20.836460529083102</v>
-          </cell>
-        </row>
-        <row r="447">
-          <cell r="A447">
-            <v>27542.287033381599</v>
-          </cell>
-          <cell r="B447">
-            <v>-21.015099763044301</v>
-          </cell>
-        </row>
-        <row r="448">
-          <cell r="A448">
-            <v>28183.829312644499</v>
-          </cell>
-          <cell r="B448">
-            <v>-21.191303201144098</v>
-          </cell>
-        </row>
-        <row r="449">
-          <cell r="A449">
-            <v>28840.315031266</v>
-          </cell>
-          <cell r="B449">
-            <v>-21.376944116838398</v>
-          </cell>
-        </row>
-        <row r="450">
-          <cell r="A450">
-            <v>29512.0922666638</v>
-          </cell>
-          <cell r="B450">
-            <v>-21.557284779614101</v>
-          </cell>
-        </row>
-        <row r="451">
-          <cell r="A451">
-            <v>30199.5172040201</v>
-          </cell>
-          <cell r="B451">
-            <v>-21.7354206715891</v>
-          </cell>
-        </row>
-        <row r="452">
-          <cell r="A452">
-            <v>30902.954325135899</v>
-          </cell>
-          <cell r="B452">
-            <v>-21.918061244492701</v>
-          </cell>
-        </row>
-        <row r="453">
-          <cell r="A453">
-            <v>31622.7766016838</v>
-          </cell>
-          <cell r="B453">
-            <v>-22.067475765235699</v>
-          </cell>
-        </row>
-        <row r="454">
-          <cell r="A454">
-            <v>32359.365692962801</v>
-          </cell>
-          <cell r="B454">
-            <v>-22.2916529958603</v>
-          </cell>
-        </row>
-        <row r="455">
-          <cell r="A455">
-            <v>33113.112148259097</v>
-          </cell>
-          <cell r="B455">
-            <v>-22.519208844191901</v>
-          </cell>
-        </row>
-        <row r="456">
-          <cell r="A456">
-            <v>33884.415613920202</v>
-          </cell>
-          <cell r="B456">
-            <v>-22.640084440751501</v>
-          </cell>
-        </row>
-        <row r="457">
-          <cell r="A457">
-            <v>34673.6850452531</v>
-          </cell>
-          <cell r="B457">
-            <v>-22.826853990926001</v>
-          </cell>
-        </row>
-        <row r="458">
-          <cell r="A458">
-            <v>35481.3389233575</v>
-          </cell>
-          <cell r="B458">
-            <v>-23.001433078120101</v>
-          </cell>
-        </row>
-        <row r="459">
-          <cell r="A459">
-            <v>36307.805477010101</v>
-          </cell>
-          <cell r="B459">
-            <v>-23.161758814681999</v>
-          </cell>
-        </row>
-        <row r="460">
-          <cell r="A460">
-            <v>37153.522909717198</v>
-          </cell>
-          <cell r="B460">
-            <v>-23.426823017241102</v>
-          </cell>
-        </row>
-        <row r="461">
-          <cell r="A461">
-            <v>38018.939632056099</v>
-          </cell>
-          <cell r="B461">
-            <v>-23.524361142849401</v>
-          </cell>
-        </row>
-        <row r="462">
-          <cell r="A462">
-            <v>38904.514499427998</v>
-          </cell>
-          <cell r="B462">
-            <v>-23.691440501105699</v>
-          </cell>
-        </row>
-        <row r="463">
-          <cell r="A463">
-            <v>39810.717055349698</v>
-          </cell>
-          <cell r="B463">
-            <v>-23.854616223197699</v>
-          </cell>
-        </row>
-        <row r="464">
-          <cell r="A464">
-            <v>40738.027780411197</v>
-          </cell>
-          <cell r="B464">
-            <v>-24.0537492789373</v>
-          </cell>
-        </row>
-        <row r="465">
-          <cell r="A465">
-            <v>41686.938347033501</v>
-          </cell>
-          <cell r="B465">
-            <v>-24.211330470766001</v>
-          </cell>
-        </row>
-        <row r="466">
-          <cell r="A466">
-            <v>42657.951880159198</v>
-          </cell>
-          <cell r="B466">
-            <v>-24.388635139423599</v>
-          </cell>
-        </row>
-        <row r="467">
-          <cell r="A467">
-            <v>43651.583224016598</v>
-          </cell>
-          <cell r="B467">
-            <v>-24.5664727384546</v>
-          </cell>
-        </row>
-        <row r="468">
-          <cell r="A468">
-            <v>44668.359215096301</v>
-          </cell>
-          <cell r="B468">
-            <v>-24.693359825150001</v>
-          </cell>
-        </row>
-        <row r="469">
-          <cell r="A469">
-            <v>45708.818961487501</v>
-          </cell>
-          <cell r="B469">
-            <v>-24.889745495438898</v>
-          </cell>
-        </row>
-        <row r="470">
-          <cell r="A470">
-            <v>46773.514128719798</v>
-          </cell>
-          <cell r="B470">
-            <v>-25.053856347671999</v>
-          </cell>
-        </row>
-        <row r="471">
-          <cell r="A471">
-            <v>47863.009232263801</v>
-          </cell>
-          <cell r="B471">
-            <v>-25.2037581481062</v>
-          </cell>
-        </row>
-        <row r="472">
-          <cell r="A472">
-            <v>48977.881936844497</v>
-          </cell>
-          <cell r="B472">
-            <v>-25.3583902710979</v>
-          </cell>
-        </row>
-        <row r="473">
-          <cell r="A473">
-            <v>50118.7233627272</v>
-          </cell>
-          <cell r="B473">
-            <v>-25.535934516119099</v>
-          </cell>
-        </row>
-        <row r="474">
-          <cell r="A474">
-            <v>51286.138399136398</v>
-          </cell>
-          <cell r="B474">
-            <v>-25.657137183900598</v>
-          </cell>
-        </row>
-        <row r="475">
-          <cell r="A475">
-            <v>52480.746024977198</v>
-          </cell>
-          <cell r="B475">
-            <v>-25.8082226549006</v>
-          </cell>
-        </row>
-        <row r="476">
-          <cell r="A476">
-            <v>53703.179637025198</v>
-          </cell>
-          <cell r="B476">
-            <v>-25.9894092282406</v>
-          </cell>
-        </row>
-        <row r="477">
-          <cell r="A477">
-            <v>54954.087385762403</v>
-          </cell>
-          <cell r="B477">
-            <v>-26.145106718063499</v>
-          </cell>
-        </row>
-        <row r="478">
-          <cell r="A478">
-            <v>56234.1325190348</v>
-          </cell>
-          <cell r="B478">
-            <v>-26.275099804022702</v>
-          </cell>
-        </row>
-        <row r="479">
-          <cell r="A479">
-            <v>57543.993733715601</v>
-          </cell>
-          <cell r="B479">
-            <v>-26.673202072317601</v>
-          </cell>
-        </row>
-        <row r="480">
-          <cell r="A480">
-            <v>58884.365535558798</v>
-          </cell>
-          <cell r="B480">
-            <v>-26.444677920945399</v>
-          </cell>
-        </row>
-        <row r="481">
-          <cell r="A481">
-            <v>60255.958607435699</v>
-          </cell>
-          <cell r="B481">
-            <v>-26.786543619127301</v>
-          </cell>
-        </row>
-        <row r="482">
-          <cell r="A482">
-            <v>61659.5001861481</v>
-          </cell>
-          <cell r="B482">
-            <v>-26.936654488175101</v>
-          </cell>
-        </row>
-        <row r="483">
-          <cell r="A483">
-            <v>63095.734448019299</v>
-          </cell>
-          <cell r="B483">
-            <v>-26.965949295899701</v>
-          </cell>
-        </row>
-        <row r="484">
-          <cell r="A484">
-            <v>64565.4229034655</v>
-          </cell>
-          <cell r="B484">
-            <v>-27.457516768085299</v>
-          </cell>
-        </row>
-        <row r="485">
-          <cell r="A485">
-            <v>66069.3448007595</v>
-          </cell>
-          <cell r="B485">
-            <v>-27.760757127279799</v>
-          </cell>
-        </row>
-        <row r="486">
-          <cell r="A486">
-            <v>67608.297539198102</v>
-          </cell>
-          <cell r="B486">
-            <v>-27.528229054085699</v>
-          </cell>
-        </row>
-        <row r="487">
-          <cell r="A487">
-            <v>69183.097091893593</v>
-          </cell>
-          <cell r="B487">
-            <v>-27.716472802647001</v>
-          </cell>
-        </row>
-        <row r="488">
-          <cell r="A488">
-            <v>70794.578438413693</v>
-          </cell>
-          <cell r="B488">
-            <v>-27.714674351837601</v>
-          </cell>
-        </row>
-        <row r="489">
-          <cell r="A489">
-            <v>72443.596007498898</v>
-          </cell>
-          <cell r="B489">
-            <v>-27.654482739944498</v>
-          </cell>
-        </row>
-        <row r="490">
-          <cell r="A490">
-            <v>74131.024130091697</v>
-          </cell>
-          <cell r="B490">
-            <v>-28.3211719361104</v>
-          </cell>
-        </row>
-        <row r="491">
-          <cell r="A491">
-            <v>75857.757502918306</v>
-          </cell>
-          <cell r="B491">
-            <v>-27.8320339883639</v>
-          </cell>
-        </row>
-        <row r="492">
-          <cell r="A492">
-            <v>77624.7116628691</v>
-          </cell>
-          <cell r="B492">
-            <v>-27.518133086859901</v>
-          </cell>
-        </row>
-        <row r="493">
-          <cell r="A493">
-            <v>79432.823472428106</v>
-          </cell>
-          <cell r="B493">
-            <v>-28.159991858737602</v>
-          </cell>
-        </row>
-        <row r="494">
-          <cell r="A494">
-            <v>81283.051616409895</v>
-          </cell>
-          <cell r="B494">
-            <v>-28.369279985468399</v>
-          </cell>
-        </row>
-        <row r="495">
-          <cell r="A495">
-            <v>83176.377110267</v>
-          </cell>
-          <cell r="B495">
-            <v>-28.4414805752311</v>
-          </cell>
-        </row>
-        <row r="496">
-          <cell r="A496">
-            <v>85113.803820237605</v>
-          </cell>
-          <cell r="B496">
-            <v>-28.459608555908499</v>
-          </cell>
-        </row>
-        <row r="497">
-          <cell r="A497">
-            <v>87096.358995607996</v>
-          </cell>
-          <cell r="B497">
-            <v>-28.6761177472067</v>
-          </cell>
-        </row>
-        <row r="498">
-          <cell r="A498">
-            <v>89125.093813374493</v>
-          </cell>
-          <cell r="B498">
-            <v>-28.712976114350301</v>
-          </cell>
-        </row>
-        <row r="499">
-          <cell r="A499">
-            <v>91201.083935590897</v>
-          </cell>
-          <cell r="B499">
-            <v>-28.8978841160658</v>
-          </cell>
-        </row>
-        <row r="500">
-          <cell r="A500">
-            <v>93325.430079699101</v>
-          </cell>
-          <cell r="B500">
-            <v>-28.910419950891601</v>
-          </cell>
-        </row>
-        <row r="501">
-          <cell r="A501">
-            <v>95499.258602143498</v>
-          </cell>
-          <cell r="B501">
-            <v>-28.999851954669701</v>
-          </cell>
-        </row>
-        <row r="502">
-          <cell r="A502">
-            <v>97723.722095581004</v>
-          </cell>
-          <cell r="B502">
-            <v>-29.113679103512101</v>
-          </cell>
-        </row>
-        <row r="503">
-          <cell r="A503">
-            <v>100000</v>
-          </cell>
-          <cell r="B503">
-            <v>-29.263141963132799</v>
           </cell>
         </row>
       </sheetData>
@@ -34350,29 +26375,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Step 1.3"/>
-      <sheetName val="Step 1.8"/>
-      <sheetName val="Step 2.2"/>
-      <sheetName val="Step 2.6"/>
-      <sheetName val="Step 3.2"/>
-      <sheetName val="Step 3.6"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -34676,12 +26678,12 @@
       <selection activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -45862,7 +37864,7 @@
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="14"/>
   </cols>
@@ -53420,18 +45422,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F26FC36-C546-4F96-9F17-547B507D0731}">
-  <dimension ref="A1:C508"/>
+  <dimension ref="A1:D508"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -56778,7 +48780,7 @@
         <v>-84.191989591958006</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="15">
         <v>977.46003564616205</v>
       </c>
@@ -56789,7 +48791,7 @@
         <v>-85.325232744982998</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="15">
         <v>1000.00000000001</v>
       </c>
@@ -56800,7 +48802,7 @@
         <v>-86.459699925221798</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="15">
         <v>1023.05972984252</v>
       </c>
@@ -56811,7 +48813,7 @@
         <v>-87.595084659893601</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="15">
         <v>1046.6512108254401</v>
       </c>
@@ -56822,29 +48824,33 @@
         <v>-88.731080785534303</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="15">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="23">
         <v>1070.7867049864101</v>
       </c>
-      <c r="B309" s="19">
+      <c r="B309" s="21">
         <v>-1.1870087799024001</v>
       </c>
-      <c r="C309" s="16">
+      <c r="C309" s="24">
         <v>-89.867382352960902</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="15">
+      <c r="D309">
+        <f>0.707*2</f>
+        <v>1.4139999999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="23">
         <v>1095.4787571223401</v>
       </c>
-      <c r="B310" s="19">
+      <c r="B310" s="21">
         <v>-1.3864792985641801</v>
       </c>
-      <c r="C310" s="16">
+      <c r="C310" s="24">
         <v>-91.003683521810302</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="15">
         <v>1120.7402013097901</v>
       </c>
@@ -56855,7 +48861,7 @@
         <v>-92.139678449471305</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="15">
         <v>1146.5841675756301</v>
       </c>
@@ -56866,7 +48872,7 @@
         <v>-93.275061179738401</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="15">
         <v>1173.0240887216301</v>
       </c>
@@ -56877,7 +48883,7 @@
         <v>-94.409525536168999</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="15">
         <v>1200.0737073063001</v>
       </c>
@@ -56888,7 +48894,7 @@
         <v>-95.542765025070494</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="15">
         <v>1227.7470827878799</v>
       </c>
@@ -56899,7 +48905,7 @@
         <v>-96.674472753219206</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="15">
         <v>1256.0585988319001</v>
       </c>
@@ -56910,7 +48916,7 @@
         <v>-97.804341364684106</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="15">
         <v>1285.02297078732</v>
       </c>
@@ -56921,7 +48927,7 @@
         <v>-98.932063001348894</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="15">
         <v>1314.6552533351</v>
       </c>
@@ -56932,7 +48938,7 @@
         <v>-100.057329290952</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="15">
         <v>1344.9708483130401</v>
       </c>
@@ -56943,7 +48949,7 @@
         <v>-101.17983136623199</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="15">
         <v>1375.9855127211899</v>
       </c>
@@ -59034,14 +51040,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01B09C1-0576-4535-B9C1-9B1984CD9A19}">
   <dimension ref="A1:E503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="14"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -59066,7 +51072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -64594,15 +56600,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>885825</xdr:colOff>
+                <xdr:colOff>889000</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>17</xdr:col>
                 <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>34</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>139700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -64624,11 +56630,11 @@
       <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -70232,11 +62238,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27BEDB4-96AC-4984-BA34-B05B1E68CE9A}">
   <dimension ref="A1:E503"/>
   <sheetViews>
-    <sheetView zoomScale="45" workbookViewId="0">
+    <sheetView topLeftCell="B19" zoomScale="75" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="14"/>
   </cols>
@@ -70263,7 +62269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -75792,11 +67798,11 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>177800</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>17</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
+                <xdr:colOff>584200</xdr:colOff>
                 <xdr:row>34</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
